--- a/Model Inputs 2021.xlsx
+++ b/Model Inputs 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swaro\Desktop\2021 - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Career management/Reason/Reason Work/R projects/Plan Models/North Dakota PERS/NDPERS-Funding Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48CB125-D626-4A08-A5DF-0E9ACDBC1BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99DCC5-D139-D247-B3FB-92FCA5927639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -226,7 +226,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -235,12 +235,21 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Added column AP for Transfer to contributions</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Added column AP for Transfer to contributions</t>
         </r>
       </text>
     </comment>
@@ -315,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="300">
   <si>
     <t>Economic Inputs</t>
   </si>
@@ -353,9 +362,6 @@
     <t>Layered</t>
   </si>
   <si>
-    <t>Amortization Base Increase Rate</t>
-  </si>
-  <si>
     <t>AVA Corridor - lower bound (% of MVA)</t>
   </si>
   <si>
@@ -524,9 +530,6 @@
     <t>Amo_Type</t>
   </si>
   <si>
-    <t>AmoBaseInc</t>
-  </si>
-  <si>
     <t>AVA_lowerbound</t>
   </si>
   <si>
@@ -575,9 +578,6 @@
     <t>Impl_FundPeriod</t>
   </si>
   <si>
-    <t>Total_Contrib</t>
-  </si>
-  <si>
     <t>Total_ER</t>
   </si>
   <si>
@@ -758,9 +758,6 @@
     <t>Solv_Contrib_NewHires</t>
   </si>
   <si>
-    <t>Total_Contrib_DC</t>
-  </si>
-  <si>
     <t>ExpInvInc_CurrentHires</t>
   </si>
   <si>
@@ -770,9 +767,6 @@
     <t>GainLoss_CurrentHires</t>
   </si>
   <si>
-    <t>DeferedCurYear_CurrentHires</t>
-  </si>
-  <si>
     <t>Year1GL_CurrentHires</t>
   </si>
   <si>
@@ -782,9 +776,6 @@
     <t>Year3GL_CurrentHires</t>
   </si>
   <si>
-    <t>TotalDefered_CurrentHires</t>
-  </si>
-  <si>
     <t>NetCF_NewHires</t>
   </si>
   <si>
@@ -797,9 +788,6 @@
     <t>GainLoss_NewHires</t>
   </si>
   <si>
-    <t>DeferedCurYear_NewHires</t>
-  </si>
-  <si>
     <t>Year1GL_NewHires</t>
   </si>
   <si>
@@ -809,21 +797,12 @@
     <t>Year3GL_NewHires</t>
   </si>
   <si>
-    <t>TotalDefered_NewHires</t>
-  </si>
-  <si>
     <t>Number of Years - Initial Base 2020</t>
   </si>
   <si>
     <t>Number of Years - Subsequent Bases (current hires)</t>
   </si>
   <si>
-    <t>NoYearsADC_CurrentHires</t>
-  </si>
-  <si>
-    <t>NoYearsADC_NewHires</t>
-  </si>
-  <si>
     <t>OriginalDR_CurrentHires</t>
   </si>
   <si>
@@ -1112,21 +1091,6 @@
     <t>Bill 2 - Legacy Fund transfer - funded level threshold</t>
   </si>
   <si>
-    <t>Bill1AdditionalER</t>
-  </si>
-  <si>
-    <t>Bill1CashInfusion</t>
-  </si>
-  <si>
-    <t>Bill2TransferGF</t>
-  </si>
-  <si>
-    <t>Bill2TransferPERS</t>
-  </si>
-  <si>
-    <t>Bill2TransferFRTreshold</t>
-  </si>
-  <si>
     <t>Transfers</t>
   </si>
   <si>
@@ -1157,12 +1121,6 @@
     <t>NewHireBenPct</t>
   </si>
   <si>
-    <t>Benefit Multiplier</t>
-  </si>
-  <si>
-    <t>BenMult</t>
-  </si>
-  <si>
     <t>Benefit Growth Rate</t>
   </si>
   <si>
@@ -1170,6 +1128,102 @@
   </si>
   <si>
     <t>BenPayments_Total</t>
+  </si>
+  <si>
+    <t>NoYearsADC_CurrentDebt</t>
+  </si>
+  <si>
+    <t>Number of Years - Subsequent Bases (new hires)</t>
+  </si>
+  <si>
+    <t>NoYearsADC_NewDebtNewHire</t>
+  </si>
+  <si>
+    <t>NoYearsADC_NewDebtCurrentHire</t>
+  </si>
+  <si>
+    <t>Amortization Base Increase Rate (current hires)</t>
+  </si>
+  <si>
+    <t>Amo method - current hires (level $ or %)</t>
+  </si>
+  <si>
+    <t>Amo method - new hires (level $ or %)</t>
+  </si>
+  <si>
+    <t>Amortization Base Increase Rate (new hires)</t>
+  </si>
+  <si>
+    <t>AmoMethod_CurrentHire</t>
+  </si>
+  <si>
+    <t>AmoBaseInc_CurrentHire</t>
+  </si>
+  <si>
+    <t>AmoBaseInc_NewHire</t>
+  </si>
+  <si>
+    <t>AmoMethod_NewHire</t>
+  </si>
+  <si>
+    <t>Level %</t>
+  </si>
+  <si>
+    <t>CashInfusion</t>
+  </si>
+  <si>
+    <t>TransferGF</t>
+  </si>
+  <si>
+    <t>TransferPERS</t>
+  </si>
+  <si>
+    <t>TransferFRTreshold</t>
+  </si>
+  <si>
+    <t>CurYearGL_CurrentHires</t>
+  </si>
+  <si>
+    <t>Year4GL_CurrentHires</t>
+  </si>
+  <si>
+    <t>CurYearGL_NewHires</t>
+  </si>
+  <si>
+    <t>Year4GL_NewHires</t>
+  </si>
+  <si>
+    <t>TotalGL_CurrentHires</t>
+  </si>
+  <si>
+    <t>TotalGL_NewHires</t>
+  </si>
+  <si>
+    <t>ERContrib_DC</t>
+  </si>
+  <si>
+    <t>Total_ERContrib_DB</t>
+  </si>
+  <si>
+    <t>Total_ERContrib</t>
+  </si>
+  <si>
+    <t>BenPayments_NewHires_prelim</t>
+  </si>
+  <si>
+    <t>BenPayments_Total_prelim</t>
+  </si>
+  <si>
+    <t>New DB Benefit Multiplier</t>
+  </si>
+  <si>
+    <t>Current DB Benefit Multiplier</t>
+  </si>
+  <si>
+    <t>BenMult_new</t>
+  </si>
+  <si>
+    <t>BenMult_current</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1240,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,6 +1352,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1349,7 +1410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1373,17 +1434,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1424,7 +1474,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1441,13 +1491,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1476,12 +1526,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1496,7 +1540,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1521,7 +1565,7 @@
     <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,6 +1632,12 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1943,747 +1993,779 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="B5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="33">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="34">
+      <c r="C8" s="32">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="75">
+        <v>230</v>
+      </c>
+      <c r="C10" s="73">
         <v>0.1119</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="75">
+        <v>175</v>
+      </c>
+      <c r="C11" s="73">
         <v>9.98E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="43">
+        <v>192</v>
+      </c>
+      <c r="C13" s="41">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="C15" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C16" s="15">
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C18" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
-        <v>253</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="60" t="s">
+        <v>243</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C19" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
-        <v>254</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="60" t="s">
+        <v>244</v>
       </c>
       <c r="B20" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C20" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
-        <v>255</v>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="60" t="s">
+        <v>245</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C21" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
-        <v>280</v>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="79" t="s">
+        <v>297</v>
       </c>
       <c r="B22" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="C22" s="15">
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="B23" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="31">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" s="31">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="40">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="33">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C32" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="31"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C37" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="62">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" t="s">
+        <v>284</v>
+      </c>
+      <c r="C39" s="62">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="31"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>268</v>
+      </c>
+      <c r="C41" s="40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C44" s="31">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>275</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="15">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="31">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" t="s">
+        <v>241</v>
+      </c>
+      <c r="C47" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="73">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="73">
+        <v>7.2599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="B28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="33">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>282</v>
-      </c>
-      <c r="B29" t="s">
-        <v>283</v>
-      </c>
-      <c r="C29" s="33">
-        <v>4.3200000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C30" s="42">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="33">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C32" s="33">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C33" s="33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" s="65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" s="66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="B37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="64">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="63" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="64">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="33"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="42">
+      <c r="C50" s="73">
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="31">
+        <f>D53-1%</f>
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="D53" s="31">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E53" s="31">
+        <f>D53+1%</f>
+        <v>8.249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="34">
+        <f>C55+C56</f>
+        <v>5270.3829970000006</v>
+      </c>
+      <c r="D54" s="34">
+        <f>D55+D56</f>
+        <v>4731.9598219999998</v>
+      </c>
+      <c r="E54" s="34">
+        <f>E55+E56</f>
+        <v>4282.6246919999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="34">
+        <f>D55</f>
+        <v>2057.857317</v>
+      </c>
+      <c r="D55" s="34">
+        <v>2057.857317</v>
+      </c>
+      <c r="E55" s="34">
+        <f>D55</f>
+        <v>2057.857317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="34">
+        <v>3212.5256800000002</v>
+      </c>
+      <c r="D56" s="34">
+        <v>2674.1025049999998</v>
+      </c>
+      <c r="E56" s="34">
+        <v>2224.7673749999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="33">
+        <f>((C54/E54)^(1/2)-1)*100</f>
+        <v>10.934359407830318</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="33">
+        <f>((C54*E54)/(D54^2)-1)*100</f>
+        <v>0.80221983082513493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="33">
-        <f>C31</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="33">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" t="s">
-        <v>251</v>
-      </c>
-      <c r="C44" s="75">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>252</v>
-      </c>
-      <c r="B45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C45" s="75">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B46" t="s">
-        <v>227</v>
-      </c>
-      <c r="C46" s="75">
-        <v>7.2599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="75">
-        <v>8.2600000000000007E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B59" t="s">
         <v>71</v>
       </c>
-      <c r="C49">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="33">
-        <f>D50-1%</f>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="D50" s="33">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="E50" s="33">
-        <f>D50+1%</f>
-        <v>8.249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="36">
-        <f>C52+C53</f>
-        <v>5270.3829970000006</v>
-      </c>
-      <c r="D51" s="36">
-        <f>D52+D53</f>
-        <v>4731.9598219999998</v>
-      </c>
-      <c r="E51" s="36">
-        <f>E52+E53</f>
-        <v>4282.6246919999994</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="36">
-        <f>D52</f>
-        <v>2057.857317</v>
-      </c>
-      <c r="D52" s="36">
-        <v>2057.857317</v>
-      </c>
-      <c r="E52" s="36">
-        <f>D52</f>
-        <v>2057.857317</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="36">
-        <v>3212.5256800000002</v>
-      </c>
-      <c r="D53" s="36">
-        <v>2674.1025049999998</v>
-      </c>
-      <c r="E53" s="36">
-        <v>2224.7673749999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="35">
-        <f>((C51/E51)^(1/2)-1)*100</f>
+      <c r="C59" s="33">
+        <f>C57*2</f>
+        <v>21.868718815660635</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="33">
+        <f>C59</f>
+        <v>21.868718815660635</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="s">
+        <v>185</v>
+      </c>
+      <c r="C61" s="33">
+        <f>C57</f>
         <v>10.934359407830318</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="35">
-        <f>((C51*E51)/(D51^2)-1)*100</f>
-        <v>0.80221983082513493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>26</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="35">
-        <f>C54*2</f>
-        <v>21.868718815660635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" t="s">
-        <v>194</v>
-      </c>
-      <c r="C57" s="35">
-        <f>C56</f>
-        <v>21.868718815660635</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="35">
-        <f>C54</f>
-        <v>10.934359407830318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="35">
-        <f>(C56-C58)/45</f>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="33">
+        <f>(C59-C61)/45</f>
         <v>0.24298576461845151</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="72">
+        <v>7.609863E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="72">
+        <v>6.7256999999999997E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
         <v>88</v>
       </c>
-      <c r="B60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="74">
-        <v>7.609863E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="74">
-        <v>6.7256999999999997E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" t="s">
-        <v>91</v>
-      </c>
-      <c r="C62" s="74">
+      <c r="C65" s="72">
         <v>0.114567006975394</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="9" priority="9">
       <formula>"bw57=""ADC"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
+  <conditionalFormatting sqref="C35">
     <cfRule type="expression" dxfId="8" priority="10">
       <formula>$DC$40="ADC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>"bw57=""ADC"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C36">
     <cfRule type="expression" dxfId="6" priority="8">
       <formula>$DC$40="ADC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="5" priority="5">
       <formula>"bw57=""ADC"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
+  <conditionalFormatting sqref="C38">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>$DC$40="ADC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="3" priority="3">
       <formula>"bw57=""ADC"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
+  <conditionalFormatting sqref="C39">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$DC$40="ADC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>"bw57=""ADC"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
+  <conditionalFormatting sqref="C37">
     <cfRule type="expression" dxfId="0" priority="2">
       <formula>$DC$40="ADC"</formula>
     </cfRule>
@@ -2695,208 +2777,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>271</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="76" t="s">
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
         <v>74</v>
       </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C21" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2909,25 +3013,25 @@
           <x14:formula1>
             <xm:f>'List Box'!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>C17</xm:sqref>
+          <xm:sqref>C19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'List Box'!$I$2:$I$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C18</xm:sqref>
+          <xm:sqref>C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>'List Box'!$G$2:$G$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
+          <xm:sqref>C21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>'List Box'!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
+          <xm:sqref>C17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
@@ -2945,7 +3049,7 @@
           <x14:formula1>
             <xm:f>'List Box'!$I$7:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>C16</xm:sqref>
+          <xm:sqref>C18</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
@@ -2975,7 +3079,7 @@
           <x14:formula1>
             <xm:f>'List Box'!$E$8:$E$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
+          <xm:sqref>C15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2991,64 +3095,64 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>52</v>
-      </c>
       <c r="M2" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="26"/>
       <c r="G4" s="26"/>
@@ -3056,28 +3160,28 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="26"/>
       <c r="I5" s="26"/>
       <c r="K5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L5" s="26"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="25" t="s">
@@ -3090,128 +3194,128 @@
       <c r="G6" s="26"/>
       <c r="I6" s="26"/>
       <c r="K6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="26"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="25"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="G7" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="38" t="s">
-        <v>116</v>
+      <c r="E8" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="G8" s="26" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="26"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="26"/>
-      <c r="C9" s="37" t="s">
-        <v>115</v>
+      <c r="C9" s="35" t="s">
+        <v>112</v>
       </c>
       <c r="D9" s="24"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="26"/>
       <c r="K9" s="26"/>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="26"/>
       <c r="I10" s="26"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="26"/>
-      <c r="C11" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>117</v>
+      <c r="C11" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="I11" s="26"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="37" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="37" t="s">
-        <v>118</v>
+      <c r="G12" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="I12" s="26"/>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G13" s="37" t="s">
-        <v>119</v>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="I13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="37" t="s">
-        <v>120</v>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C14" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="I14" s="26"/>
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="37" t="s">
-        <v>121</v>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C15" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="L15" s="26"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L16" s="26"/>
     </row>
   </sheetData>
@@ -3227,17 +3331,17 @@
       <selection activeCell="A2" sqref="A2:A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -3245,7 +3349,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -3253,7 +3357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -3261,7 +3365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -3269,7 +3373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -3277,7 +3381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -3285,7 +3389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -3293,7 +3397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -3301,7 +3405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -3309,7 +3413,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -3317,7 +3421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -3325,7 +3429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -3333,7 +3437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -3341,7 +3445,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -3349,7 +3453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -3357,7 +3461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -3365,7 +3469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -3373,7 +3477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -3381,7 +3485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -3389,7 +3493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -3397,7 +3501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -3405,7 +3509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -3413,7 +3517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -3421,7 +3525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -3429,7 +3533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -3437,7 +3541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -3445,7 +3549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -3453,7 +3557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -3461,7 +3565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -3469,7 +3573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -3477,7 +3581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -3485,7 +3589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -3493,7 +3597,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -3501,7 +3605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -3509,7 +3613,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -3517,7 +3621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2056</v>
       </c>
@@ -3525,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2057</v>
       </c>
@@ -3533,7 +3637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2058</v>
       </c>
@@ -3541,7 +3645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2059</v>
       </c>
@@ -3549,7 +3653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2060</v>
       </c>
@@ -3557,7 +3661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2061</v>
       </c>
@@ -3565,7 +3669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2062</v>
       </c>
@@ -3573,7 +3677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2063</v>
       </c>
@@ -3581,7 +3685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2064</v>
       </c>
@@ -3589,7 +3693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2065</v>
       </c>
@@ -3597,7 +3701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2066</v>
       </c>
@@ -3605,7 +3709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2067</v>
       </c>
@@ -3613,7 +3717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2068</v>
       </c>
@@ -3621,7 +3725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2069</v>
       </c>
@@ -3629,7 +3733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2070</v>
       </c>
@@ -3637,7 +3741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2071</v>
       </c>
@@ -3645,7 +3749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2072</v>
       </c>
@@ -3653,7 +3757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2073</v>
       </c>
@@ -3661,7 +3765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2074</v>
       </c>
@@ -3669,7 +3773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2075</v>
       </c>
@@ -3677,7 +3781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2076</v>
       </c>
@@ -3685,7 +3789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2077</v>
       </c>
@@ -3693,7 +3797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2078</v>
       </c>
@@ -3701,7 +3805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2079</v>
       </c>
@@ -3709,7 +3813,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2080</v>
       </c>
@@ -3717,7 +3821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2081</v>
       </c>
@@ -3738,17 +3842,17 @@
       <selection activeCell="A2" sqref="A2:A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -3756,7 +3860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -3764,7 +3868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -3772,7 +3876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -3780,7 +3884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2025</v>
       </c>
@@ -3788,7 +3892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2026</v>
       </c>
@@ -3796,7 +3900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2027</v>
       </c>
@@ -3804,7 +3908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2028</v>
       </c>
@@ -3812,7 +3916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2029</v>
       </c>
@@ -3820,7 +3924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2030</v>
       </c>
@@ -3828,7 +3932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2031</v>
       </c>
@@ -3836,7 +3940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2032</v>
       </c>
@@ -3844,7 +3948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2033</v>
       </c>
@@ -3852,7 +3956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2034</v>
       </c>
@@ -3860,7 +3964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2035</v>
       </c>
@@ -3868,7 +3972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2036</v>
       </c>
@@ -3876,7 +3980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2037</v>
       </c>
@@ -3884,7 +3988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2038</v>
       </c>
@@ -3892,7 +3996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2039</v>
       </c>
@@ -3900,7 +4004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2040</v>
       </c>
@@ -3908,7 +4012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2041</v>
       </c>
@@ -3916,7 +4020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2042</v>
       </c>
@@ -3924,7 +4028,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2043</v>
       </c>
@@ -3932,7 +4036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2044</v>
       </c>
@@ -3940,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2045</v>
       </c>
@@ -3948,7 +4052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2046</v>
       </c>
@@ -3956,7 +4060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2047</v>
       </c>
@@ -3964,7 +4068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2048</v>
       </c>
@@ -3972,7 +4076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2049</v>
       </c>
@@ -3980,7 +4084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2050</v>
       </c>
@@ -3988,7 +4092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2051</v>
       </c>
@@ -3996,7 +4100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2052</v>
       </c>
@@ -4004,7 +4108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2053</v>
       </c>
@@ -4012,7 +4116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2054</v>
       </c>
@@ -4020,7 +4124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2055</v>
       </c>
@@ -4028,7 +4132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2056</v>
       </c>
@@ -4036,7 +4140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2057</v>
       </c>
@@ -4044,7 +4148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2058</v>
       </c>
@@ -4052,7 +4156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2059</v>
       </c>
@@ -4060,7 +4164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2060</v>
       </c>
@@ -4068,7 +4172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2061</v>
       </c>
@@ -4076,7 +4180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2062</v>
       </c>
@@ -4084,7 +4188,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2063</v>
       </c>
@@ -4092,7 +4196,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2064</v>
       </c>
@@ -4100,7 +4204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2065</v>
       </c>
@@ -4108,7 +4212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2066</v>
       </c>
@@ -4116,7 +4220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2067</v>
       </c>
@@ -4124,7 +4228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2068</v>
       </c>
@@ -4132,7 +4236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2069</v>
       </c>
@@ -4140,7 +4244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2070</v>
       </c>
@@ -4148,7 +4252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2071</v>
       </c>
@@ -4156,7 +4260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2072</v>
       </c>
@@ -4164,7 +4268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2073</v>
       </c>
@@ -4172,7 +4276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2074</v>
       </c>
@@ -4180,7 +4284,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2075</v>
       </c>
@@ -4188,7 +4292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2076</v>
       </c>
@@ -4196,7 +4300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2077</v>
       </c>
@@ -4204,7 +4308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2078</v>
       </c>
@@ -4212,7 +4316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2079</v>
       </c>
@@ -4220,7 +4324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2080</v>
       </c>
@@ -4228,7 +4332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2081</v>
       </c>
@@ -4246,51 +4350,51 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -4322,7 +4426,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
@@ -4354,7 +4458,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2024</v>
       </c>
@@ -4386,7 +4490,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2025</v>
       </c>
@@ -4418,7 +4522,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2026</v>
       </c>
@@ -4450,7 +4554,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2027</v>
       </c>
@@ -4482,7 +4586,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2028</v>
       </c>
@@ -4514,7 +4618,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2029</v>
       </c>
@@ -4546,7 +4650,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2030</v>
       </c>
@@ -4578,7 +4682,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2031</v>
       </c>
@@ -4610,7 +4714,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2032</v>
       </c>
@@ -4642,7 +4746,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2033</v>
       </c>
@@ -4674,7 +4778,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2034</v>
       </c>
@@ -4706,7 +4810,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2035</v>
       </c>
@@ -4738,7 +4842,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2036</v>
       </c>
@@ -4770,7 +4874,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2037</v>
       </c>
@@ -4802,7 +4906,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -4834,7 +4938,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2039</v>
       </c>
@@ -4866,7 +4970,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2040</v>
       </c>
@@ -4898,7 +5002,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2041</v>
       </c>
@@ -4930,7 +5034,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2042</v>
       </c>
@@ -4962,7 +5066,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2043</v>
       </c>
@@ -4994,7 +5098,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2044</v>
       </c>
@@ -5026,7 +5130,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2045</v>
       </c>
@@ -5058,7 +5162,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2046</v>
       </c>
@@ -5090,7 +5194,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2047</v>
       </c>
@@ -5122,7 +5226,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2048</v>
       </c>
@@ -5154,7 +5258,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2049</v>
       </c>
@@ -5186,7 +5290,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2050</v>
       </c>
@@ -5218,7 +5322,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2051</v>
       </c>
@@ -5250,7 +5354,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2052</v>
       </c>
@@ -5282,7 +5386,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2053</v>
       </c>
@@ -5314,7 +5418,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2054</v>
       </c>
@@ -5346,7 +5450,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2055</v>
       </c>
@@ -5378,7 +5482,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2056</v>
       </c>
@@ -5410,7 +5514,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2057</v>
       </c>
@@ -5442,7 +5546,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2058</v>
       </c>
@@ -5474,7 +5578,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2059</v>
       </c>
@@ -5506,7 +5610,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2060</v>
       </c>
@@ -5538,7 +5642,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2061</v>
       </c>
@@ -5570,7 +5674,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2062</v>
       </c>
@@ -5602,7 +5706,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2063</v>
       </c>
@@ -5634,7 +5738,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2064</v>
       </c>
@@ -5666,7 +5770,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2065</v>
       </c>
@@ -5698,7 +5802,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2066</v>
       </c>
@@ -5730,7 +5834,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2067</v>
       </c>
@@ -5762,7 +5866,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2068</v>
       </c>
@@ -5794,7 +5898,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2069</v>
       </c>
@@ -5826,7 +5930,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2070</v>
       </c>
@@ -5858,7 +5962,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2071</v>
       </c>
@@ -5890,7 +5994,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2072</v>
       </c>
@@ -5922,7 +6026,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2073</v>
       </c>
@@ -5954,7 +6058,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2074</v>
       </c>
@@ -5986,7 +6090,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2075</v>
       </c>
@@ -6018,7 +6122,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2076</v>
       </c>
@@ -6050,7 +6154,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2077</v>
       </c>
@@ -6082,7 +6186,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2078</v>
       </c>
@@ -6114,7 +6218,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2079</v>
       </c>
@@ -6146,7 +6250,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2080</v>
       </c>
@@ -6185,1849 +6289,2253 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CU7"/>
+  <dimension ref="A1:CZ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AZ14" sqref="AZ14"/>
+    <sheetView topLeftCell="BO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="CA1" sqref="CA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="7.5546875" customWidth="1"/>
-    <col min="28" max="28" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="7.5546875" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.33203125" customWidth="1"/>
-    <col min="38" max="38" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="53" width="14.33203125" customWidth="1"/>
-    <col min="54" max="54" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="55" max="57" width="11.5546875" customWidth="1"/>
-    <col min="58" max="58" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.77734375" customWidth="1"/>
-    <col min="60" max="60" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.33203125" customWidth="1"/>
-    <col min="63" max="63" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="9.44140625" customWidth="1"/>
-    <col min="67" max="67" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="6" customWidth="1"/>
-    <col min="69" max="69" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.44140625" customWidth="1"/>
-    <col min="71" max="71" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.88671875" customWidth="1"/>
-    <col min="74" max="76" width="11.5546875" customWidth="1"/>
-    <col min="77" max="77" width="12" customWidth="1"/>
-    <col min="78" max="78" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="12" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="12" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="17" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.1640625" customWidth="1"/>
+    <col min="58" max="58" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="14" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="6" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="7" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="18" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="18" customWidth="1"/>
+    <col min="93" max="93" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="101" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.6640625" customWidth="1"/>
+    <col min="103" max="103" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="AG1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="BO1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="BP1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="BT1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="CA1" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="CB1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="BC1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>263</v>
+      </c>
+      <c r="CG1" t="s">
         <v>144</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CH1" t="s">
         <v>145</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CI1" t="s">
         <v>146</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CJ1" t="s">
+        <v>285</v>
+      </c>
+      <c r="CK1" t="s">
         <v>147</v>
       </c>
-      <c r="BX1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="BY1" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>278</v>
-      </c>
-      <c r="CD1" t="s">
+      <c r="CL1" t="s">
         <v>148</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CM1" t="s">
         <v>149</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CN1" t="s">
+        <v>286</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP1" t="s">
         <v>150</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CQ1" t="s">
         <v>151</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CR1" t="s">
         <v>152</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CS1" t="s">
         <v>153</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CT1" t="s">
+        <v>287</v>
+      </c>
+      <c r="CU1" t="s">
         <v>154</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CV1" t="s">
         <v>155</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CW1" t="s">
         <v>156</v>
       </c>
-      <c r="CM1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:99" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="CX1" t="s">
+        <v>288</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:104" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43">
         <v>2016</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>1007.764043</v>
       </c>
-      <c r="C2" s="47">
+      <c r="C2" s="45">
         <v>1007.764043</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="31">
+      <c r="D2" s="45">
+        <v>0</v>
+      </c>
+      <c r="E2" s="45">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
         <v>1078.313326</v>
       </c>
-      <c r="G2" s="31">
+      <c r="G2" s="29">
         <v>1078.313326</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="50">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="48">
         <v>12.678458388513357</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="49">
         <v>0.08</v>
       </c>
-      <c r="L2" s="51">
+      <c r="L2" s="49">
         <v>0.08</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="49">
         <v>0.08</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="49">
         <v>0.08</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="29">
         <v>3299.3811000000001</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="29">
         <v>3299.3811000000001</v>
       </c>
-      <c r="Q2" s="31">
-        <v>0</v>
-      </c>
-      <c r="R2" s="31">
+      <c r="Q2" s="29">
+        <v>0</v>
+      </c>
+      <c r="R2" s="29">
         <v>107.826127</v>
       </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="31">
+      <c r="S2" s="51"/>
+      <c r="T2" s="29">
         <v>3299.3811000000001</v>
       </c>
-      <c r="U2" s="31">
+      <c r="U2" s="29">
         <v>3299.3811000000001</v>
       </c>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31">
+      <c r="V2" s="29"/>
+      <c r="W2" s="29">
         <v>107.826127</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="31">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="29">
         <v>2180.7486159999999</v>
       </c>
-      <c r="Z2" s="31">
+      <c r="Z2" s="29">
         <v>2180.7486159999999</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31">
+      <c r="AA2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="29">
         <v>2324.7836229999998</v>
       </c>
-      <c r="AC2" s="31">
+      <c r="AC2" s="29">
         <v>2324.7836229999998</v>
       </c>
-      <c r="AD2" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="54">
+      <c r="AD2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="52">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AF2" s="47">
+      <c r="AF2" s="45">
         <v>1118.6324840000002</v>
       </c>
-      <c r="AG2" s="47">
+      <c r="AG2" s="45">
         <v>1118.6324840000002</v>
       </c>
-      <c r="AH2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="47">
+      <c r="AH2" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="45">
         <v>974.59747700000025</v>
       </c>
-      <c r="AJ2" s="47">
+      <c r="AJ2" s="45">
         <v>974.59747700000025</v>
       </c>
-      <c r="AK2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="55">
+      <c r="AK2" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="53">
         <v>0.66095687339664999</v>
       </c>
-      <c r="AM2" s="56">
+      <c r="AM2" s="54">
         <v>0.70461203254149685</v>
       </c>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="39">
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="37">
         <v>2050</v>
       </c>
-      <c r="AP2" s="58">
+      <c r="AP2" s="56">
         <v>0.1</v>
       </c>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="51">
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="49">
         <v>0.03</v>
       </c>
-      <c r="AU2" s="60"/>
-      <c r="AV2" s="51">
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="49">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="77">
+      <c r="AW2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="75">
         <f>BB2+BC2</f>
         <v>-145.864485</v>
       </c>
-      <c r="BB2" s="46">
+      <c r="BB2" s="44">
         <v>-145.864485</v>
       </c>
-      <c r="BC2" s="31"/>
-      <c r="BD2" s="31">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="31">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="31">
+      <c r="BC2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="75">
+        <f>BA2</f>
+        <v>-145.864485</v>
+      </c>
+      <c r="BF2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="29">
         <v>-2.4811869999999998</v>
       </c>
-      <c r="BG2" s="31"/>
-      <c r="BH2" s="31">
+      <c r="BI2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="29">
         <f>71.996797</f>
         <v>71.996797000000001</v>
       </c>
-      <c r="BI2" s="47"/>
-      <c r="BJ2" s="47"/>
-      <c r="BK2" s="30"/>
-      <c r="BL2" s="47">
+      <c r="BK2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="45">
         <v>8.9056060000000006</v>
       </c>
-      <c r="BM2" s="47"/>
-      <c r="BN2" s="31">
-        <v>0</v>
-      </c>
-      <c r="BO2" s="31">
+      <c r="BO2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="29">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="29">
         <v>53.512270683299995</v>
       </c>
-      <c r="BP2" s="31"/>
-      <c r="BQ2" s="31">
+      <c r="BR2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="29">
         <v>19.448217316700003</v>
       </c>
-      <c r="BR2" s="47"/>
-      <c r="BS2" s="47"/>
-      <c r="BT2" s="47"/>
-      <c r="BU2" s="47"/>
-      <c r="BV2" s="47">
+      <c r="BT2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="45">
         <v>153.86289100000002</v>
       </c>
-      <c r="BW2" s="47">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="61">
+      <c r="BY2" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="59">
         <v>153.86289100000002</v>
       </c>
-      <c r="BY2" s="44">
-        <f>BZ2+AI2</f>
-        <v>1130.3185640000002</v>
-      </c>
-      <c r="BZ2" s="29">
-        <v>155.72108700000001</v>
-      </c>
-      <c r="CA2" s="9">
-        <v>155.72108700000001</v>
-      </c>
-      <c r="CB2" s="10">
+      <c r="CB2" s="42">
+        <f>CC2+AI2</f>
+        <v>974.59747700000025</v>
+      </c>
+      <c r="CC2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC2" s="67">
-        <f>BB2+BF2+BE2+BH2+BJ2+BO2+BQ2+BN2+BL2</f>
+      <c r="CF2" s="65">
+        <f>BB2+BH2+BG2+BJ2+BL2+BQ2+BS2+BP2+BN2</f>
         <v>5.5172189999999919</v>
       </c>
-      <c r="CD2">
-        <v>144.11230419999998</v>
-      </c>
-      <c r="CE2">
-        <v>2077.7100141999999</v>
-      </c>
-      <c r="CF2">
-        <v>-19.852697199999966</v>
-      </c>
-      <c r="CG2">
-        <v>-15.882157759999973</v>
-      </c>
-      <c r="CH2">
-        <v>-63.534632999999999</v>
-      </c>
-      <c r="CI2">
-        <v>-20.860636</v>
-      </c>
+      <c r="CG2"/>
+      <c r="CH2"/>
+      <c r="CI2"/>
       <c r="CJ2">
-        <v>-1.9908669999999999</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>-102.26829375999996</v>
-      </c>
-      <c r="CL2" s="40">
-        <f>BC2+BG2+BI2+BK2+BP2+BN2+BM2+BR2</f>
-        <v>0</v>
-      </c>
-      <c r="CM2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CP2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CR2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="40">
-        <v>0</v>
-      </c>
-      <c r="CU2"/>
-    </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A3" s="45">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2"/>
+      <c r="CP2" s="38">
+        <f>BC2+BI2+BK2+BM2+BR2+BP2+BO2+BT2</f>
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2"/>
+    </row>
+    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
         <v>2017</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="44">
         <v>1020.843253</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>1020.843253</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="31">
+      <c r="D3" s="45">
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
+        <v>0</v>
+      </c>
+      <c r="F3" s="29">
         <v>1091.4255579999999</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>1091.4255579999999</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="50">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48">
         <v>13.122204432111324</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="29">
         <v>3618.0839729999998</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="29">
         <v>3618.0839729999998</v>
       </c>
-      <c r="Q3" s="31">
-        <v>0</v>
-      </c>
-      <c r="R3" s="31">
+      <c r="Q3" s="29">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29">
         <v>117.029448</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="31">
+      <c r="S3" s="45"/>
+      <c r="T3" s="29">
         <v>3618.0839729999998</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="29">
         <v>3618.0839729999998</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29">
         <v>117.029448</v>
       </c>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="31">
+      <c r="X3" s="45"/>
+      <c r="Y3" s="29">
         <v>2529.6310079999998</v>
       </c>
-      <c r="Z3" s="31">
+      <c r="Z3" s="29">
         <v>2529.6310079999998</v>
       </c>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31">
+      <c r="AA3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="29">
         <v>2620.5457529999999</v>
       </c>
-      <c r="AC3" s="31">
+      <c r="AC3" s="29">
         <v>2620.5457529999999</v>
       </c>
-      <c r="AD3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="54">
+      <c r="AD3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="52">
         <v>0.129</v>
       </c>
-      <c r="AF3" s="47">
+      <c r="AF3" s="45">
         <v>1088.4529649999999</v>
       </c>
-      <c r="AG3" s="47">
+      <c r="AG3" s="45">
         <v>1088.4529649999999</v>
       </c>
-      <c r="AH3" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="47">
+      <c r="AH3" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="45">
         <v>997.53821999999991</v>
       </c>
-      <c r="AJ3" s="47">
+      <c r="AJ3" s="45">
         <v>997.53821999999991</v>
       </c>
-      <c r="AK3" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="55">
+      <c r="AK3" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="53">
         <v>0.69916315565846598</v>
       </c>
-      <c r="AM3" s="56">
+      <c r="AM3" s="54">
         <v>0.72429102601151818</v>
       </c>
-      <c r="AN3" s="56"/>
-      <c r="AP3" s="58">
+      <c r="AN3" s="54"/>
+      <c r="AP3" s="56">
         <v>0.10722623008247349</v>
       </c>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="52">
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50">
         <v>3.7226230082473485E-2</v>
       </c>
-      <c r="AU3" s="52"/>
-      <c r="AV3" s="51">
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="49">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="77">
+      <c r="AW3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="75">
         <f t="shared" ref="BA3:BA7" si="0">BB3+BC3</f>
         <v>-158.544085</v>
       </c>
-      <c r="BB3" s="46">
+      <c r="BB3" s="44">
         <v>-158.544085</v>
       </c>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="47">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="47">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="31">
+      <c r="BC3" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="75">
+        <f t="shared" ref="BE3:BE7" si="1">BA3</f>
+        <v>-158.544085</v>
+      </c>
+      <c r="BF3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="29">
         <v>-2.5472649999999999</v>
       </c>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31">
+      <c r="BI3" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="29">
         <v>73.287125000000003</v>
       </c>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BL3" s="31">
+      <c r="BK3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="29">
         <v>9.7849079999999997</v>
       </c>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="47">
+      <c r="BO3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="45">
         <v>30.625297589999999</v>
       </c>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="31">
+      <c r="BR3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="29">
         <v>43.398257409999999</v>
       </c>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="47"/>
-      <c r="BT3" s="47"/>
-      <c r="BU3" s="47"/>
-      <c r="BV3" s="47">
+      <c r="BT3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="45">
         <v>157.09558800000002</v>
       </c>
-      <c r="BW3" s="47">
-        <v>165.71144000000001</v>
-      </c>
-      <c r="BX3" s="61">
+      <c r="BY3" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="59">
         <v>157.09558800000002</v>
       </c>
-      <c r="CB3" s="10">
+      <c r="CC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC3" s="67">
-        <f t="shared" ref="CC3:CC6" si="1">BB3+BF3+BE3+BH3+BJ3+BO3+BQ3+BN3+BL3</f>
+      <c r="CF3" s="65">
+        <f t="shared" ref="CF3:CF6" si="2">BB3+BH3+BG3+BJ3+BL3+BQ3+BS3+BP3+BN3</f>
         <v>-3.9957620000000009</v>
       </c>
-      <c r="CD3" s="68">
-        <f>(AC2*L2)+(CC3*L2*0.5)</f>
-        <v>185.82285935999997</v>
-      </c>
-      <c r="CE3" s="68">
-        <f>AC2+CC3+CD3</f>
-        <v>2506.61072036</v>
-      </c>
-      <c r="CF3" s="68">
-        <f>AC3-CE3</f>
-        <v>113.93503263999992</v>
-      </c>
-      <c r="CG3" s="68">
-        <f>CF3*0.8</f>
-        <v>91.14802611199994</v>
-      </c>
-      <c r="CH3" s="68">
-        <f>CG2*0.6</f>
-        <v>-9.5292946559999834</v>
-      </c>
-      <c r="CI3" s="68">
-        <f>CH2*0.4</f>
-        <v>-25.413853200000002</v>
-      </c>
-      <c r="CJ3" s="68">
-        <f>CI2*0.2</f>
-        <v>-4.1721272000000003</v>
-      </c>
-      <c r="CL3" s="40">
-        <f t="shared" ref="CL3:CL6" si="2">BC3+BG3+BI3+BK3+BP3+BN3+BM3+BR3</f>
-        <v>0</v>
-      </c>
-      <c r="CM3" s="68">
-        <f>(AD2*L2)+(CL3*L2*0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="CN3" s="68">
-        <f>AD2+CL3+CM3</f>
-        <v>0</v>
-      </c>
-      <c r="CO3" s="68">
-        <f>CN3-AD3</f>
-        <v>0</v>
-      </c>
-      <c r="CP3" s="68">
-        <f>CO3*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="68">
-        <f>CP2*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="CR3" s="68">
-        <f>CQ2*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="CS3" s="68">
-        <f>CR2*0.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A4" s="45">
+      <c r="CG3" s="66">
+        <f>AC2*L2+CF3*((1+L2)^0.5-1)</f>
+        <v>185.82593416062815</v>
+      </c>
+      <c r="CH3" s="66">
+        <f>AC2+CF3+CG3</f>
+        <v>2506.6137951606279</v>
+      </c>
+      <c r="CI3" s="66">
+        <f>AC3-CH3</f>
+        <v>113.93195783937199</v>
+      </c>
+      <c r="CJ3" s="66">
+        <f>CI3*0.2</f>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CK3" s="66">
+        <f>CJ2</f>
+        <v>0</v>
+      </c>
+      <c r="CL3" s="66">
+        <f t="shared" ref="CL3:CO3" si="3">CK2</f>
+        <v>0</v>
+      </c>
+      <c r="CM3" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CN3" s="66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="CO3" s="66">
+        <f>SUM(CJ3:CN3)</f>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CP3" s="38">
+        <f t="shared" ref="CP3:CP6" si="4">BC3+BI3+BK3+BM3+BR3+BP3+BO3+BT3</f>
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
         <v>2018</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="44">
         <v>1027.317202</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>1027.317202</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="31">
+      <c r="D4" s="45">
+        <v>0</v>
+      </c>
+      <c r="E4" s="45">
+        <v>0</v>
+      </c>
+      <c r="F4" s="29">
         <v>1098.1398569999999</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <v>1098.1398569999999</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="50">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48">
         <v>13.581481587235221</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="49">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="29">
         <v>3841.7011790000001</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="29">
         <v>3841.7011790000001</v>
       </c>
-      <c r="Q4" s="31">
-        <v>0</v>
-      </c>
-      <c r="R4" s="31">
+      <c r="Q4" s="29">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29">
         <v>118.922545</v>
       </c>
-      <c r="S4" s="47"/>
-      <c r="T4" s="31">
+      <c r="S4" s="45"/>
+      <c r="T4" s="29">
         <v>3841.7011790000001</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="29">
         <v>3841.7011790000001</v>
       </c>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31">
+      <c r="V4" s="29"/>
+      <c r="W4" s="29">
         <v>118.922545</v>
       </c>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="31">
+      <c r="X4" s="45"/>
+      <c r="Y4" s="29">
         <v>2752.0533049999999</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="29">
         <v>2752.0533049999999</v>
       </c>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31">
+      <c r="AA4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="29">
         <v>2849.3190749999999</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="AC4" s="29">
         <v>2849.3190749999999</v>
       </c>
-      <c r="AD4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="54">
+      <c r="AD4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="52">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AF4" s="47">
+      <c r="AF4" s="45">
         <v>1089.6478740000002</v>
       </c>
-      <c r="AG4" s="47">
+      <c r="AG4" s="45">
         <v>1089.6478740000002</v>
       </c>
-      <c r="AH4" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="47">
+      <c r="AH4" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="45">
         <v>992.38210400000025</v>
       </c>
-      <c r="AJ4" s="47">
+      <c r="AJ4" s="45">
         <v>992.38210400000025</v>
       </c>
-      <c r="AK4" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="55">
+      <c r="AK4" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="53">
         <v>0.71636318827805423</v>
       </c>
-      <c r="AM4" s="56">
+      <c r="AM4" s="54">
         <v>0.74168159943707057</v>
       </c>
-      <c r="AN4" s="56"/>
-      <c r="AP4" s="58">
+      <c r="AN4" s="54"/>
+      <c r="AP4" s="56">
         <v>0.10829453483719607</v>
       </c>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52">
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50">
         <v>3.8294534837196068E-2</v>
       </c>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="51">
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="49">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="77">
+      <c r="AW4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="75">
         <f t="shared" si="0"/>
         <v>-177.047022</v>
       </c>
-      <c r="BB4" s="46">
+      <c r="BB4" s="44">
         <v>-177.047022</v>
       </c>
-      <c r="BC4" s="31"/>
-      <c r="BD4" s="47">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="47">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="31">
+      <c r="BC4" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="75">
+        <f t="shared" si="1"/>
+        <v>-177.047022</v>
+      </c>
+      <c r="BF4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="29">
         <v>-2.4030459999999998</v>
       </c>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31">
+      <c r="BI4" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="29">
         <v>74.724650999999994</v>
       </c>
-      <c r="BI4" s="47"/>
-      <c r="BJ4" s="47"/>
-      <c r="BL4" s="31">
+      <c r="BK4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="29">
         <v>19.160584</v>
       </c>
-      <c r="BM4" s="47"/>
-      <c r="BN4" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="47">
+      <c r="BO4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="45">
         <v>38.243146529334886</v>
       </c>
-      <c r="BP4" s="47"/>
-      <c r="BQ4" s="31">
+      <c r="BR4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="29">
         <v>37.42315347066512</v>
       </c>
-      <c r="BR4" s="47"/>
-      <c r="BS4" s="47"/>
-      <c r="BT4" s="47"/>
-      <c r="BU4" s="47"/>
-      <c r="BV4" s="47">
+      <c r="BT4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="45">
         <v>169.551535</v>
       </c>
-      <c r="BW4" s="47">
-        <v>165.71144000000001</v>
-      </c>
-      <c r="BX4" s="61">
+      <c r="BY4" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="59">
         <v>169.551535</v>
       </c>
-      <c r="CB4" s="10">
+      <c r="CC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC4" s="67">
-        <f t="shared" si="1"/>
+      <c r="CF4" s="65">
+        <f t="shared" si="2"/>
         <v>-9.8985329999999792</v>
       </c>
-      <c r="CD4" s="68">
-        <f t="shared" ref="CD4:CD6" si="3">(AC3*L3)+(CC4*L3*0.5)</f>
-        <v>202.70872770374999</v>
-      </c>
-      <c r="CE4" s="68">
-        <f t="shared" ref="CE4:CE6" si="4">AC3+CC4+CD4</f>
-        <v>2813.3559477037497</v>
-      </c>
-      <c r="CF4" s="68">
-        <f t="shared" ref="CF4:CF6" si="5">AC4-CE4</f>
-        <v>35.96312729625015</v>
-      </c>
-      <c r="CG4" s="68">
-        <f t="shared" ref="CG4:CG6" si="6">CF4*0.8</f>
-        <v>28.770501837000122</v>
-      </c>
-      <c r="CH4" s="68">
-        <f>CG3*0.6</f>
-        <v>54.688815667199961</v>
-      </c>
-      <c r="CI4" s="68">
-        <f>CH3*0.4</f>
-        <v>-3.8117178623999934</v>
-      </c>
-      <c r="CJ4" s="68">
-        <f>CI3*0.2</f>
-        <v>-5.0827706400000006</v>
-      </c>
-      <c r="CL4" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CM4" s="68">
-        <f t="shared" ref="CM4:CM6" si="7">(AD3*L3)+(CL4*L3*0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="CN4" s="68">
-        <f t="shared" ref="CN4:CN6" si="8">AD3+CL4+CM4</f>
-        <v>0</v>
-      </c>
-      <c r="CO4" s="68">
-        <f t="shared" ref="CO4:CO6" si="9">CN4-AD4</f>
-        <v>0</v>
-      </c>
-      <c r="CP4" s="68">
-        <f t="shared" ref="CP4:CP6" si="10">CO4*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="68">
-        <f>CP3*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="CR4" s="68">
-        <f>CQ3*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="CS4" s="68">
-        <f>CR3*0.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A5" s="45">
+      <c r="CG4" s="66">
+        <f t="shared" ref="CG4:CG7" si="5">AC3*L3+CF4*((1+L3)^0.5-1)</f>
+        <v>202.71588459451851</v>
+      </c>
+      <c r="CH4" s="66">
+        <f t="shared" ref="CH4:CH6" si="6">AC3+CF4+CG4</f>
+        <v>2813.3631045945185</v>
+      </c>
+      <c r="CI4" s="66">
+        <f t="shared" ref="CI4:CI6" si="7">AC4-CH4</f>
+        <v>35.955970405481366</v>
+      </c>
+      <c r="CJ4" s="66">
+        <f t="shared" ref="CJ4:CJ7" si="8">CI4*0.2</f>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CK4" s="66">
+        <f t="shared" ref="CK4:CO7" si="9">CJ3</f>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CL4" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="66">
+        <f t="shared" ref="CO4:CO7" si="10">SUM(CJ4:CN4)</f>
+        <v>29.977585648970674</v>
+      </c>
+      <c r="CP4" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
         <v>2019</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="44">
         <v>1040.1701740000001</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>1040.1701740000001</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="31">
+      <c r="D5" s="45">
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <v>0</v>
+      </c>
+      <c r="F5" s="29">
         <v>1112.628109</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <v>1112.628109</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="50">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="48">
         <v>14.056833442788452</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="49">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="49">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="49">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="29">
         <v>4136.2529869999998</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="29">
         <v>4136.2529869999998</v>
       </c>
-      <c r="Q5" s="31">
-        <v>0</v>
-      </c>
-      <c r="R5" s="31">
+      <c r="Q5" s="29">
+        <v>0</v>
+      </c>
+      <c r="R5" s="29">
         <v>126.95711300000001</v>
       </c>
-      <c r="S5" s="47"/>
-      <c r="T5" s="31">
+      <c r="S5" s="45"/>
+      <c r="T5" s="29">
         <v>4136.2529869999998</v>
       </c>
-      <c r="U5" s="31">
+      <c r="U5" s="29">
         <v>4136.2529869999998</v>
       </c>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31">
+      <c r="V5" s="29"/>
+      <c r="W5" s="29">
         <v>126.95711300000001</v>
       </c>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="31">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="29">
         <v>2949.9670489999999</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="29">
         <v>2949.9670489999999</v>
       </c>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31">
+      <c r="AA5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="29">
         <v>2964.1806280000001</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="29">
         <v>2964.1806280000001</v>
       </c>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="54">
+      <c r="AD5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="52">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="45">
         <v>1186.285938</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AG5" s="45">
         <v>1186.285938</v>
       </c>
-      <c r="AH5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="47">
+      <c r="AH5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="45">
         <v>1172.0723589999998</v>
       </c>
-      <c r="AJ5" s="47">
+      <c r="AJ5" s="45">
         <v>1172.0723589999998</v>
       </c>
-      <c r="AK5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="55">
+      <c r="AK5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="53">
         <v>0.71319792533763604</v>
       </c>
-      <c r="AM5" s="56">
+      <c r="AM5" s="54">
         <v>0.71663426712927025</v>
       </c>
-      <c r="AN5" s="56"/>
-      <c r="AP5" s="58">
+      <c r="AN5" s="54"/>
+      <c r="AP5" s="56">
         <v>0.11410561352265819</v>
       </c>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52">
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50">
         <v>4.4105613522658182E-2</v>
       </c>
-      <c r="AU5" s="52"/>
-      <c r="AV5" s="51">
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="49">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="77">
+      <c r="AW5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="75">
         <f t="shared" si="0"/>
         <v>-191.905089</v>
       </c>
-      <c r="BB5" s="46">
+      <c r="BB5" s="44">
         <v>-191.905089</v>
       </c>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="31">
+      <c r="BC5" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="75">
+        <f t="shared" si="1"/>
+        <v>-191.905089</v>
+      </c>
+      <c r="BF5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="29">
         <f>-2455262/1000000</f>
         <v>-2.4552619999999998</v>
       </c>
-      <c r="BG5" s="31"/>
-      <c r="BH5" s="31">
+      <c r="BI5" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="29">
         <f>74974506/1000000</f>
         <v>74.974506000000005</v>
       </c>
-      <c r="BI5" s="47"/>
-      <c r="BJ5" s="47"/>
-      <c r="BL5" s="31">
+      <c r="BK5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="29">
         <v>7.0740879999999997</v>
       </c>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="47">
+      <c r="BO5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="45">
         <v>39.832832964855299</v>
       </c>
-      <c r="BP5" s="47"/>
-      <c r="BQ5" s="31">
+      <c r="BR5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="29">
         <v>35.897427035144702</v>
       </c>
-      <c r="BR5" s="47"/>
-      <c r="BS5" s="47"/>
-      <c r="BT5" s="47"/>
-      <c r="BU5" s="47"/>
-      <c r="BV5" s="47">
+      <c r="BT5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="45">
         <v>157.77885400000002</v>
       </c>
-      <c r="BW5" s="47">
-        <v>165.71144000000001</v>
-      </c>
-      <c r="BX5" s="61">
+      <c r="BY5" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="59">
         <v>157.77885400000002</v>
       </c>
-      <c r="CB5" s="10">
+      <c r="CC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC5" s="67">
-        <f t="shared" si="1"/>
+      <c r="CF5" s="65">
+        <f t="shared" si="2"/>
         <v>-36.581496999999999</v>
       </c>
-      <c r="CD5" s="68">
-        <f>(AC4*L4)+(CC5*L4*0.5)</f>
-        <v>219.40469530374997</v>
-      </c>
-      <c r="CE5" s="68">
+      <c r="CG5" s="66">
+        <f t="shared" si="5"/>
+        <v>219.43114465520219</v>
+      </c>
+      <c r="CH5" s="66">
+        <f t="shared" si="6"/>
+        <v>3032.1687226552021</v>
+      </c>
+      <c r="CI5" s="66">
+        <f t="shared" si="7"/>
+        <v>-67.988094655202076</v>
+      </c>
+      <c r="CJ5" s="66">
+        <f t="shared" si="8"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CK5" s="66">
+        <f t="shared" si="9"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CL5" s="66">
+        <f t="shared" si="9"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CM5" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CN5" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CO5" s="66">
+        <f t="shared" si="10"/>
+        <v>16.379966717930259</v>
+      </c>
+      <c r="CP5" s="38">
         <f t="shared" si="4"/>
-        <v>3032.1422733037498</v>
-      </c>
-      <c r="CF5" s="68">
-        <f t="shared" si="5"/>
-        <v>-67.961645303749719</v>
-      </c>
-      <c r="CG5" s="68">
-        <f t="shared" si="6"/>
-        <v>-54.36931624299978</v>
-      </c>
-      <c r="CH5" s="68">
-        <f>CG4*0.6</f>
-        <v>17.262301102200073</v>
-      </c>
-      <c r="CI5" s="68">
-        <f>CH4*0.4</f>
-        <v>21.875526266879987</v>
-      </c>
-      <c r="CJ5" s="68">
-        <f>CI4*0.2</f>
-        <v>-0.76234357247999873</v>
-      </c>
-      <c r="CL5" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CM5" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="CN5" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CO5" s="68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CP5" s="68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="68">
-        <f>CP4*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="CR5" s="68">
-        <f>CQ4*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="CS5" s="68">
-        <f>CR4*0.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A6" s="45">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
         <v>2020</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="46">
         <v>1103.120694</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="47">
         <v>1103.120694</v>
       </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47">
+      <c r="D6" s="45">
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
         <v>1141.7299182899999</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="45">
         <v>1070.0270731799999</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="45">
         <v>71.702845109999998</v>
       </c>
-      <c r="I6" s="47">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48">
         <v>14.548822613286047</v>
       </c>
-      <c r="K6" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N6" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6" s="31">
+      <c r="K6" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N6" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O6" s="29">
         <v>4557.6790199999996</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="29">
         <v>4557.6790199999996</v>
       </c>
-      <c r="Q6" s="31">
-        <v>0</v>
-      </c>
-      <c r="R6" s="47">
+      <c r="Q6" s="29">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
         <v>127</v>
       </c>
-      <c r="S6" s="47"/>
-      <c r="T6" s="31">
+      <c r="S6" s="45"/>
+      <c r="T6" s="29">
         <v>4557.6790199999996</v>
       </c>
-      <c r="U6" s="31">
+      <c r="U6" s="29">
         <v>4557.6790199999996</v>
       </c>
-      <c r="V6" s="31"/>
-      <c r="W6" s="47">
+      <c r="V6" s="29"/>
+      <c r="W6" s="45">
         <v>127</v>
       </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="31">
+      <c r="X6" s="45"/>
+      <c r="Y6" s="29">
         <v>3112.9200329999999</v>
       </c>
-      <c r="Z6" s="31">
+      <c r="Z6" s="29">
         <v>3112.9200329999999</v>
       </c>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31">
+      <c r="AA6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="29">
         <v>3011.4992940000002</v>
       </c>
-      <c r="AC6" s="49">
+      <c r="AC6" s="47">
         <v>3011.4992940000002</v>
       </c>
-      <c r="AD6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="57">
+      <c r="AD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="55">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="AF6" s="47">
+      <c r="AF6" s="45">
         <v>1444.7589869999997</v>
       </c>
-      <c r="AG6" s="47">
+      <c r="AG6" s="45">
         <v>1444.7589869999997</v>
       </c>
-      <c r="AH6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="47">
+      <c r="AH6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="45">
         <v>1546.1797259999994</v>
       </c>
-      <c r="AJ6" s="47">
+      <c r="AJ6" s="45">
         <v>1546.1797259999994</v>
       </c>
-      <c r="AK6" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="55">
+      <c r="AK6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="53">
         <v>0.68300554280805847</v>
       </c>
-      <c r="AM6" s="56">
+      <c r="AM6" s="54">
         <v>0.6607528263365946</v>
       </c>
-      <c r="AN6" s="56"/>
-      <c r="AP6" s="59">
+      <c r="AN6" s="54"/>
+      <c r="AP6" s="57">
         <v>0.11174767343391631</v>
       </c>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS6" s="52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT6" s="52">
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS6" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT6" s="50">
         <v>4.1747673433916305E-2</v>
       </c>
-      <c r="AU6" s="52"/>
-      <c r="AV6" s="51">
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="49">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="AW6" s="51"/>
-      <c r="AX6" s="51"/>
-      <c r="AY6" s="51"/>
-      <c r="AZ6" s="51"/>
-      <c r="BA6" s="77">
+      <c r="AW6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="75">
         <f t="shared" si="0"/>
         <v>-212.14052699999999</v>
       </c>
-      <c r="BB6" s="46">
+      <c r="BB6" s="44">
         <v>-212.14052699999999</v>
       </c>
-      <c r="BC6" s="47"/>
-      <c r="BD6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="31">
+      <c r="BC6" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="75">
+        <f t="shared" si="1"/>
+        <v>-212.14052699999999</v>
+      </c>
+      <c r="BF6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="29">
         <f>-2639036/1000000</f>
         <v>-2.6390359999999999</v>
       </c>
-      <c r="BG6" s="47"/>
-      <c r="BH6" s="31">
+      <c r="BI6" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="29">
         <f>77718958/1000000</f>
         <v>77.718958000000001</v>
       </c>
-      <c r="BI6" s="47"/>
-      <c r="BJ6" s="47"/>
-      <c r="BL6" s="31">
+      <c r="BK6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="29">
         <v>9.8819210000000002</v>
       </c>
-      <c r="BM6" s="47"/>
-      <c r="BN6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="47">
+      <c r="BO6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="45">
         <v>48.653814998410475</v>
       </c>
-      <c r="BP6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="31">
+      <c r="BR6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="29">
         <v>29.456746001589529</v>
       </c>
-      <c r="BR6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="47">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="47"/>
-      <c r="BV6" s="47">
+      <c r="BT6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="45">
         <v>165.71144000000001</v>
       </c>
-      <c r="BW6" s="47">
+      <c r="BY6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="59">
         <v>165.71144000000001</v>
       </c>
-      <c r="BX6" s="61">
-        <v>165.71144000000001</v>
-      </c>
-      <c r="CB6" s="10">
+      <c r="CC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC6" s="67">
-        <f t="shared" si="1"/>
+      <c r="CF6" s="65">
+        <f t="shared" si="2"/>
         <v>-49.068123000000014</v>
       </c>
-      <c r="CD6" s="68">
-        <f t="shared" si="3"/>
-        <v>220.47349248749998</v>
-      </c>
-      <c r="CE6" s="68">
+      <c r="CG6" s="66">
+        <f t="shared" si="5"/>
+        <v>220.50675735463145</v>
+      </c>
+      <c r="CH6" s="66">
+        <f t="shared" si="6"/>
+        <v>3135.6192623546317</v>
+      </c>
+      <c r="CI6" s="66">
+        <f t="shared" si="7"/>
+        <v>-124.11996835463151</v>
+      </c>
+      <c r="CJ6" s="66">
+        <f t="shared" si="8"/>
+        <v>-24.823993670926303</v>
+      </c>
+      <c r="CK6" s="66">
+        <f t="shared" si="9"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CL6" s="66">
+        <f t="shared" si="9"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CM6" s="66">
+        <f t="shared" si="9"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CN6" s="66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="CO6" s="66">
+        <f t="shared" si="10"/>
+        <v>-8.4440269529960403</v>
+      </c>
+      <c r="CP6" s="38">
         <f t="shared" si="4"/>
-        <v>3135.5859974875002</v>
-      </c>
-      <c r="CF6" s="68">
-        <f t="shared" si="5"/>
-        <v>-124.08670348750002</v>
-      </c>
-      <c r="CG6" s="68">
-        <f t="shared" si="6"/>
-        <v>-99.269362790000017</v>
-      </c>
-      <c r="CH6" s="68">
-        <f>CG5*0.6</f>
-        <v>-32.621589745799866</v>
-      </c>
-      <c r="CI6" s="68">
-        <f>CH5*0.4</f>
-        <v>6.90492044088003</v>
-      </c>
-      <c r="CJ6" s="68">
-        <f>CI5*0.2</f>
-        <v>4.375105253375998</v>
-      </c>
-      <c r="CL6" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="CM6" s="68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="CN6" s="68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="CO6" s="68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CP6" s="68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="68">
-        <f>CP5*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="CR6" s="68">
-        <f>CQ5*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="CS6" s="68">
-        <f>CR5*0.2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
         <v>2021</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="46">
         <f>1132390738/1000000</f>
         <v>1132.3907380000001</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="47">
         <f>B7</f>
         <v>1132.3907380000001</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L7" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M7" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N7" s="51">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O7" s="31">
+      <c r="D7" s="45">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7" s="49">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O7" s="29">
         <f>4795054158/1000000</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="29">
         <f>O7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="Q7" s="31">
-        <v>0</v>
-      </c>
-      <c r="R7" s="69">
+      <c r="Q7" s="29">
+        <v>0</v>
+      </c>
+      <c r="R7" s="67">
         <v>143</v>
       </c>
-      <c r="S7" s="69">
-        <v>0</v>
-      </c>
-      <c r="T7" s="31">
+      <c r="S7" s="67">
+        <v>0</v>
+      </c>
+      <c r="T7" s="29">
         <f>O7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="U7" s="31">
+      <c r="U7" s="29">
         <f>T7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="69">
+      <c r="V7" s="29"/>
+      <c r="W7" s="67">
         <f>R7</f>
         <v>143</v>
       </c>
-      <c r="X7" s="69">
+      <c r="X7" s="67">
         <f>S7</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31">
+      <c r="Y7" s="29">
+        <f>3369943759/1000000</f>
+        <v>3369.9437589999998</v>
+      </c>
+      <c r="Z7" s="29">
+        <f>Y7</f>
+        <v>3369.9437589999998</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="29">
         <f>T7-AI7</f>
         <v>3752.753612</v>
       </c>
-      <c r="AC7" s="49">
+      <c r="AC7" s="47">
         <f>AB7</f>
         <v>3752.753612</v>
       </c>
-      <c r="AD7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="57">
+      <c r="AD7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="55">
         <v>0.27150000000000002</v>
       </c>
-      <c r="AF7" s="47">
+      <c r="AF7" s="45">
         <f>1425110399/1000000</f>
         <v>1425.1103989999999</v>
       </c>
-      <c r="AG7" s="47">
+      <c r="AG7" s="45">
         <f>AF7</f>
         <v>1425.1103989999999</v>
       </c>
-      <c r="AH7" s="47">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="47">
+      <c r="AH7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="45">
         <f>1042300546/1000000</f>
         <v>1042.3005459999999</v>
       </c>
-      <c r="AJ7" s="47">
+      <c r="AJ7" s="45">
         <f>AI7</f>
         <v>1042.3005459999999</v>
       </c>
-      <c r="AK7" s="47">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="72">
+      <c r="AK7" s="45">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="70">
         <v>0.68300554280805847</v>
       </c>
-      <c r="AM7" s="73">
+      <c r="AM7" s="71">
         <v>0.6607528263365946</v>
       </c>
-      <c r="AN7" s="56"/>
-      <c r="AP7" s="59">
+      <c r="AN7" s="54"/>
+      <c r="AP7" s="57">
         <v>0.1119</v>
       </c>
-      <c r="AQ7" s="70">
+      <c r="AQ7" s="68">
         <v>9.9842411832325936E-2</v>
       </c>
-      <c r="AR7" s="58">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS7" s="52">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT7" s="52">
+      <c r="AR7" s="56">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS7" s="50">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT7" s="50">
         <v>4.19E-2</v>
       </c>
-      <c r="AU7" s="70">
+      <c r="AU7" s="68">
         <v>2.984241183232593E-2</v>
       </c>
-      <c r="AV7" s="51">
+      <c r="AV7" s="49">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="AW7" s="51"/>
-      <c r="AX7" s="51"/>
-      <c r="AY7" s="51"/>
-      <c r="AZ7" s="51"/>
-      <c r="BA7" s="77">
+      <c r="AW7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="75">
         <f t="shared" si="0"/>
         <v>-222.25549880469276</v>
       </c>
-      <c r="BB7" s="46">
+      <c r="BB7" s="44">
         <v>-222.25549880469276</v>
       </c>
-      <c r="BC7" s="47"/>
-      <c r="BD7" s="69">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="69">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="71">
+      <c r="BC7" s="29">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="75">
+        <f t="shared" si="1"/>
+        <v>-222.25549880469276</v>
+      </c>
+      <c r="BF7" s="67">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="67">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="69">
         <f>-2639036/1000000</f>
         <v>-2.6390359999999999</v>
       </c>
-      <c r="BG7" s="47"/>
-      <c r="BH7" s="71">
+      <c r="BI7" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="69">
         <f>77718958/1000000</f>
         <v>77.718958000000001</v>
       </c>
-      <c r="BI7" s="47"/>
-      <c r="BJ7" s="47"/>
-      <c r="BL7" s="71">
+      <c r="BK7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="69">
         <v>9.8819210000000002</v>
       </c>
-      <c r="BM7" s="47"/>
-      <c r="BN7" s="69">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="69">
+      <c r="BO7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="67">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="67">
         <v>48.653814998410475</v>
       </c>
-      <c r="BP7" s="69">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="71">
+      <c r="BR7" s="67">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="69">
         <v>29.456746001589529</v>
       </c>
-      <c r="BR7" s="47"/>
-      <c r="BS7" s="47"/>
-      <c r="BT7" s="47"/>
-      <c r="BU7" s="47"/>
-      <c r="BV7" s="47"/>
-      <c r="BW7" s="47"/>
-      <c r="BX7" s="61"/>
-      <c r="CB7" s="10">
+      <c r="BT7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="45"/>
+      <c r="BY7" s="45">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="45">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="59"/>
+      <c r="CC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CE7" s="10">
         <v>0.12</v>
       </c>
-      <c r="CC7" s="67">
-        <f t="shared" ref="CC7" si="11">BB7+BF7+BE7+BH7+BJ7+BO7+BQ7+BN7+BL7</f>
+      <c r="CF7" s="65">
+        <f t="shared" ref="CF7" si="11">BB7+BH7+BG7+BJ7+BL7+BQ7+BS7+BP7+BN7</f>
         <v>-59.183094804692765</v>
       </c>
-      <c r="CD7" s="68">
-        <f t="shared" ref="CD7" si="12">(AC6*L6)+(CC7*L6*0.5)</f>
-        <v>208.73354226183577</v>
-      </c>
-      <c r="CE7" s="68">
-        <f t="shared" ref="CE7" si="13">AC6+CC7+CD7</f>
-        <v>3161.0497414571432</v>
-      </c>
-      <c r="CF7" s="68">
-        <f t="shared" ref="CF7" si="14">AC7-CE7</f>
-        <v>591.70387054285675</v>
-      </c>
-      <c r="CG7" s="68">
-        <f t="shared" ref="CG7" si="15">CF7*0.8</f>
-        <v>473.36309643428541</v>
-      </c>
-      <c r="CH7" s="68">
-        <f>CG6*0.6</f>
-        <v>-59.561617674000004</v>
-      </c>
-      <c r="CI7" s="68">
-        <f>CH6*0.4</f>
-        <v>-13.048635898319947</v>
-      </c>
-      <c r="CJ7" s="68">
-        <f>CI6*0.2</f>
-        <v>1.380984088176006</v>
-      </c>
-      <c r="CL7" s="40">
-        <f t="shared" ref="CL7" si="16">BC7+BG7+BI7+BK7+BP7+BN7+BM7+BR7</f>
-        <v>0</v>
-      </c>
-      <c r="CM7" s="68">
-        <f t="shared" ref="CM7" si="17">(AD6*L6)+(CL7*L6*0.5)</f>
-        <v>0</v>
-      </c>
-      <c r="CN7" s="68">
-        <f t="shared" ref="CN7" si="18">AD6+CL7+CM7</f>
-        <v>0</v>
-      </c>
-      <c r="CO7" s="68">
-        <f t="shared" ref="CO7" si="19">CN7-AD7</f>
-        <v>0</v>
-      </c>
-      <c r="CP7" s="68">
-        <f t="shared" ref="CP7" si="20">CO7*0.8</f>
-        <v>0</v>
-      </c>
-      <c r="CQ7" s="68">
-        <f>CP6*0.6</f>
-        <v>0</v>
-      </c>
-      <c r="CR7" s="68">
-        <f>CQ6*0.4</f>
-        <v>0</v>
-      </c>
-      <c r="CS7" s="68">
-        <f>CR6*0.2</f>
-        <v>0</v>
-      </c>
+      <c r="CG7" s="66">
+        <f t="shared" si="5"/>
+        <v>208.76857609258329</v>
+      </c>
+      <c r="CH7" s="66">
+        <f t="shared" ref="CH7" si="12">AC6+CF7+CG7</f>
+        <v>3161.0847752878908</v>
+      </c>
+      <c r="CI7" s="66">
+        <f t="shared" ref="CI7" si="13">AC7-CH7</f>
+        <v>591.66883671210917</v>
+      </c>
+      <c r="CJ7" s="66">
+        <f t="shared" si="8"/>
+        <v>118.33376734242184</v>
+      </c>
+      <c r="CK7" s="66">
+        <f t="shared" si="9"/>
+        <v>-24.823993670926303</v>
+      </c>
+      <c r="CL7" s="66">
+        <f t="shared" si="9"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CM7" s="66">
+        <f t="shared" si="9"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CN7" s="66">
+        <f t="shared" si="9"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CO7" s="66">
+        <f t="shared" si="10"/>
+        <v>109.8897403894258</v>
+      </c>
+      <c r="CP7" s="38">
+        <f t="shared" ref="CP7" si="14">BC7+BI7+BK7+BM7+BR7+BP7+BO7+BT7</f>
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CT7">
+        <v>0</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>0</v>
+      </c>
+      <c r="CY7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="AF11" s="77"/>
+      <c r="CI11" s="77"/>
+    </row>
+    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CI12" s="66"/>
+    </row>
+    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
+      <c r="CI13" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Inputs 2021.xlsx
+++ b/Model Inputs 2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Career management/Reason/Reason Work/R projects/Plan Models/North Dakota PERS/NDPERS-Funding Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A99DCC5-D139-D247-B3FB-92FCA5927639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF5FC7-441C-C34A-9683-DAD7EC2A3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric Inputs" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="304">
   <si>
     <t>Economic Inputs</t>
   </si>
@@ -1224,13 +1224,25 @@
   </si>
   <si>
     <t>BenMult_current</t>
+  </si>
+  <si>
+    <t>Statutory employer contribution rate after full funding</t>
+  </si>
+  <si>
+    <t>ERContrib_FullFund</t>
+  </si>
+  <si>
+    <t>ERStatu_CurrentHires</t>
+  </si>
+  <si>
+    <t>ERStatu_NewHires</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -1239,6 +1251,8 @@
     <numFmt numFmtId="167" formatCode="0.000000"/>
     <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="0.0000000000000000%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1360,7 +1374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1370,12 +1384,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,12 +1402,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,7 +1476,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1511,14 +1513,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1559,10 +1557,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1610,23 +1608,23 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1639,6 +1637,8 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1993,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2008,7 +2008,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       <c r="B2" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       <c r="B3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
       <c r="B4" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       <c r="B5" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2063,12 +2063,12 @@
       <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       <c r="B8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="28">
         <v>0.5</v>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       <c r="B10" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="69">
         <v>0.1119</v>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="B11" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="69">
         <v>9.98E-2</v>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       <c r="B12" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
       <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="37">
         <v>0.5</v>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="B14" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2156,8 +2156,8 @@
       <c r="B15" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="32">
-        <v>0</v>
+      <c r="C15" s="28">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="56" t="s">
         <v>243</v>
       </c>
       <c r="B19" t="s">
@@ -2205,7 +2205,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="56" t="s">
         <v>244</v>
       </c>
       <c r="B20" t="s">
@@ -2216,7 +2216,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="56" t="s">
         <v>245</v>
       </c>
       <c r="B21" t="s">
@@ -2227,7 +2227,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="75" t="s">
         <v>297</v>
       </c>
       <c r="B22" t="s">
@@ -2238,7 +2238,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="70" t="s">
         <v>296</v>
       </c>
       <c r="B23" t="s">
@@ -2249,7 +2249,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="26" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="27">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       <c r="B26" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="27">
         <v>0</v>
       </c>
     </row>
@@ -2304,7 +2304,7 @@
       <c r="B29" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="27">
         <v>2.3E-3</v>
       </c>
     </row>
@@ -2315,7 +2315,7 @@
       <c r="B30" t="s">
         <v>266</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="27">
         <v>4.3200000000000002E-2</v>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
       <c r="B31" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="36">
         <v>8.5</v>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="27">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2348,108 +2348,108 @@
       <c r="B33" t="s">
         <v>221</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="27">
         <v>0.98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="31"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="61" t="s">
+      <c r="A35" s="57" t="s">
         <v>250</v>
       </c>
       <c r="B35" t="s">
         <v>213</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="57" t="s">
         <v>251</v>
       </c>
       <c r="B36" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="63">
+      <c r="C36" s="59">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+      <c r="A37" s="57" t="s">
         <v>252</v>
       </c>
       <c r="B37" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="64">
+      <c r="C37" s="60">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="57" t="s">
         <v>253</v>
       </c>
       <c r="B38" t="s">
         <v>283</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="58">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="57" t="s">
         <v>254</v>
       </c>
       <c r="B39" t="s">
         <v>284</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="58">
         <v>0.9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="31"/>
+      <c r="C40" s="27"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="35" t="s">
         <v>157</v>
       </c>
       <c r="B41" t="s">
         <v>268</v>
       </c>
-      <c r="C41" s="40">
-        <v>25</v>
+      <c r="C41" s="36">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="35" t="s">
         <v>158</v>
       </c>
       <c r="B42" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="40">
+      <c r="C42" s="36">
         <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="35" t="s">
         <v>269</v>
       </c>
       <c r="B43" t="s">
         <v>270</v>
       </c>
-      <c r="C43" s="40">
-        <v>15</v>
+      <c r="C43" s="36">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2459,7 +2459,7 @@
       <c r="B44" t="s">
         <v>277</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="27">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       <c r="B46" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="27">
         <v>99.99</v>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       <c r="B47" t="s">
         <v>241</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="69">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       <c r="B48" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="73">
+      <c r="C48" s="69">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       <c r="B49" t="s">
         <v>217</v>
       </c>
-      <c r="C49" s="73">
+      <c r="C49" s="69">
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
@@ -2525,197 +2525,208 @@
       <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="73">
+      <c r="C50" s="69">
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51">
-        <v>0.8</v>
+        <v>301</v>
+      </c>
+      <c r="C51" s="15">
+        <v>0.06</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="31">
-        <f>D53-1%</f>
-        <v>6.2499999999999993E-2</v>
-      </c>
-      <c r="D53" s="31">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="E53" s="31">
-        <f>D53+1%</f>
-        <v>8.249999999999999E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53">
+        <v>1.2</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="34">
-        <f>C55+C56</f>
-        <v>5270.3829970000006</v>
-      </c>
-      <c r="D54" s="34">
-        <f>D55+D56</f>
-        <v>4731.9598219999998</v>
-      </c>
-      <c r="E54" s="34">
-        <f>E55+E56</f>
-        <v>4282.6246919999994</v>
+        <v>19</v>
+      </c>
+      <c r="C54" s="27">
+        <f>D54-1%</f>
+        <v>6.2499999999999993E-2</v>
+      </c>
+      <c r="D54" s="27">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="E54" s="27">
+        <f>D54+1%</f>
+        <v>8.249999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="34">
-        <f>D55</f>
-        <v>2057.857317</v>
-      </c>
-      <c r="D55" s="34">
-        <v>2057.857317</v>
-      </c>
-      <c r="E55" s="34">
-        <f>D55</f>
-        <v>2057.857317</v>
+        <v>20</v>
+      </c>
+      <c r="C55" s="30">
+        <f>C56+C57</f>
+        <v>5270.3829970000006</v>
+      </c>
+      <c r="D55" s="30">
+        <f>D56+D57</f>
+        <v>4731.9598219999998</v>
+      </c>
+      <c r="E55" s="30">
+        <f>E56+E57</f>
+        <v>4282.6246919999994</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="34">
-        <v>3212.5256800000002</v>
-      </c>
-      <c r="D56" s="34">
-        <v>2674.1025049999998</v>
-      </c>
-      <c r="E56" s="34">
-        <v>2224.7673749999999</v>
+        <v>21</v>
+      </c>
+      <c r="C56" s="30">
+        <f>D56</f>
+        <v>2057.857317</v>
+      </c>
+      <c r="D56" s="30">
+        <v>2057.857317</v>
+      </c>
+      <c r="E56" s="30">
+        <f>D56</f>
+        <v>2057.857317</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="33">
-        <f>((C54/E54)^(1/2)-1)*100</f>
-        <v>10.934359407830318</v>
+        <v>22</v>
+      </c>
+      <c r="C57" s="30">
+        <v>3212.5256800000002</v>
+      </c>
+      <c r="D57" s="30">
+        <v>2674.1025049999998</v>
+      </c>
+      <c r="E57" s="30">
+        <v>2224.7673749999999</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="33">
-        <f>((C54*E54)/(D54^2)-1)*100</f>
-        <v>0.80221983082513493</v>
+        <v>70</v>
+      </c>
+      <c r="C58" s="29">
+        <f>((C55/E55)^(1/2)-1)*100</f>
+        <v>10.934359407830318</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="33">
-        <f>C57*2</f>
-        <v>21.868718815660635</v>
+        <v>24</v>
+      </c>
+      <c r="C59" s="29">
+        <f>((C55*E55)/(D55^2)-1)*100</f>
+        <v>0.80221983082513493</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="33">
-        <f>C59</f>
+        <v>71</v>
+      </c>
+      <c r="C60" s="29">
+        <f>C58*2</f>
         <v>21.868718815660635</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="33">
-        <f>C57</f>
-        <v>10.934359407830318</v>
+        <v>184</v>
+      </c>
+      <c r="C61" s="29">
+        <f>C60</f>
+        <v>21.868718815660635</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="33">
-        <f>(C59-C61)/45</f>
-        <v>0.24298576461845151</v>
+        <v>185</v>
+      </c>
+      <c r="C62" s="29">
+        <f>C58</f>
+        <v>10.934359407830318</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C63" s="72">
-        <v>7.609863E-2</v>
+        <v>186</v>
+      </c>
+      <c r="C63" s="29">
+        <f>(C60-C62)/45</f>
+        <v>0.24298576461845151</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="72">
-        <v>6.7256999999999997E-2</v>
+        <v>90</v>
+      </c>
+      <c r="C64" s="68">
+        <v>7.609863E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="68">
+        <v>6.7256999999999997E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>87</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="72">
+      <c r="C66" s="68">
         <v>0.114567006975394</v>
       </c>
     </row>
@@ -2780,7 +2791,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2802,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2884,7 +2895,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="26" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2896,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2911,7 +2922,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="72" t="s">
         <v>273</v>
       </c>
       <c r="B13" t="s">
@@ -2922,7 +2933,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="72" t="s">
         <v>274</v>
       </c>
       <c r="B14" t="s">
@@ -2944,7 +2955,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="26" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3103,10 +3114,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="22"/>
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -3122,15 +3133,15 @@
       <c r="K2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="22"/>
       <c r="C3" t="s">
         <v>46</v>
       </c>
@@ -3146,177 +3157,177 @@
       <c r="K3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
+      <c r="B4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="G5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="K5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="26"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="G6" s="22"/>
+      <c r="I6" s="22"/>
       <c r="K6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="G7" s="26" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="20"/>
+      <c r="E9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="I9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
+      <c r="B10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="E11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
+      <c r="I11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
+      <c r="I12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
+      <c r="I13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
+      <c r="I14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="26"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L16" s="26"/>
+      <c r="L16" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3839,7 +3850,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A62"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4350,527 +4361,287 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C2" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F2" s="16">
+      <c r="C2" s="16">
         <v>-0.24</v>
       </c>
-      <c r="G2" s="16">
+      <c r="D2" s="16">
         <v>-0.24</v>
       </c>
-      <c r="H2" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I2" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J2" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2023</v>
       </c>
       <c r="B3" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F3" s="18">
+      <c r="C3" s="18">
         <v>0.11</v>
       </c>
-      <c r="G3" s="18">
+      <c r="D3" s="18">
         <v>0.11</v>
       </c>
-      <c r="H3" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I3" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J3" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E3" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2024</v>
       </c>
       <c r="B4" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C4" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F4" s="18">
+      <c r="C4" s="18">
         <v>0.11</v>
       </c>
-      <c r="G4" s="18">
+      <c r="D4" s="18">
         <v>0.11</v>
       </c>
-      <c r="H4" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I4" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J4" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2025</v>
       </c>
-      <c r="B5">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C5" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E5" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="B5" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="18">
         <v>0.11</v>
       </c>
-      <c r="G5" s="18">
+      <c r="D5" s="18">
         <v>0.11</v>
       </c>
-      <c r="H5" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I5" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J5" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2026</v>
       </c>
-      <c r="B6">
-        <v>0.19</v>
-      </c>
-      <c r="C6" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I6" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2027</v>
       </c>
-      <c r="B7">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C7" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I7" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2028</v>
       </c>
-      <c r="B8">
-        <v>0.19309999999999999</v>
-      </c>
-      <c r="C8" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I8" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2029</v>
       </c>
-      <c r="B9">
-        <v>0.19009999999999999</v>
-      </c>
-      <c r="C9" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I9" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J9" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2030</v>
       </c>
-      <c r="B10">
-        <v>0.1482</v>
-      </c>
-      <c r="C10" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I10" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J10" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2031</v>
       </c>
-      <c r="B11">
-        <v>0.114</v>
-      </c>
-      <c r="C11" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E11" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0.05</v>
-      </c>
-      <c r="I11" s="17">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="J11" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E11" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2032</v>
       </c>
-      <c r="B12">
-        <v>-0.111</v>
-      </c>
-      <c r="C12" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E12" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H12" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I12" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J12" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2033</v>
       </c>
-      <c r="B13">
-        <v>-8.7999999999999995E-2</v>
-      </c>
-      <c r="C13" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E13" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H13" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I13" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2034</v>
       </c>
-      <c r="B14">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C14" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E14" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H14" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I14" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C14" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2035</v>
       </c>
-      <c r="B15">
-        <v>0.153</v>
-      </c>
-      <c r="C15" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D15" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E15" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H15" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I15" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J15" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C15" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2036</v>
       </c>
-      <c r="B16">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="C16" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D16" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E16" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H16" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I16" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="B16" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E16" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -4878,31 +4649,16 @@
       <c r="A17">
         <v>2037</v>
       </c>
-      <c r="B17" s="21">
-        <v>0.12</v>
-      </c>
-      <c r="C17" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E17" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="B17" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C17" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D17" s="18">
         <v>-0.24</v>
       </c>
-      <c r="H17" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I17" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="E17" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -4910,31 +4666,16 @@
       <c r="A18">
         <v>2038</v>
       </c>
-      <c r="B18" s="21">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C18" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E18" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="B18" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C18" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D18" s="18">
         <v>0.11</v>
       </c>
-      <c r="H18" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I18" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="E18" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -4942,31 +4683,16 @@
       <c r="A19">
         <v>2039</v>
       </c>
-      <c r="B19" s="21">
-        <v>-0.06</v>
-      </c>
-      <c r="C19" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D19" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E19" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="B19" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C19" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D19" s="18">
         <v>0.11</v>
       </c>
-      <c r="H19" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I19" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="E19" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -4974,31 +4700,16 @@
       <c r="A20">
         <v>2040</v>
       </c>
-      <c r="B20" s="21">
-        <v>-0.17699999999999999</v>
-      </c>
-      <c r="C20" s="22">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="D20" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E20" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="B20" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D20" s="18">
         <v>0.11</v>
       </c>
-      <c r="H20" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I20" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="E20" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5006,31 +4717,16 @@
       <c r="A21">
         <v>2041</v>
       </c>
-      <c r="B21" s="21">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="C21" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D21" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E21" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H21" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I21" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="B21" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C21" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E21" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5038,31 +4734,16 @@
       <c r="A22">
         <v>2042</v>
       </c>
-      <c r="B22" s="23">
-        <v>0.19</v>
-      </c>
-      <c r="C22" s="22">
-        <v>0.02</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E22" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H22" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I22" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="B22" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C22" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E22" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5070,31 +4751,16 @@
       <c r="A23">
         <v>2043</v>
       </c>
-      <c r="B23" s="23">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C23" s="22">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E23" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H23" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I23" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="B23" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E23" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5102,31 +4768,16 @@
       <c r="A24">
         <v>2044</v>
       </c>
-      <c r="B24" s="23">
-        <v>0.108</v>
-      </c>
-      <c r="C24" s="22">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E24" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H24" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I24" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="B24" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E24" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5134,31 +4785,16 @@
       <c r="A25">
         <v>2045</v>
       </c>
-      <c r="B25" s="23">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="C25" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D25" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E25" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H25" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I25" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="B25" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E25" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5166,31 +4802,16 @@
       <c r="A26">
         <v>2046</v>
       </c>
-      <c r="B26" s="23">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="C26" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D26" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E26" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H26" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I26" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="B26" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E26" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5198,31 +4819,16 @@
       <c r="A27">
         <v>2047</v>
       </c>
-      <c r="B27" s="23">
-        <v>3.1E-2</v>
-      </c>
-      <c r="C27" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D27" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E27" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H27" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I27" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="B27" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E27" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5230,31 +4836,16 @@
       <c r="A28">
         <v>2048</v>
       </c>
-      <c r="B28" s="23">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="C28" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E28" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H28" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I28" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="B28" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E28" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5262,31 +4853,16 @@
       <c r="A29">
         <v>2049</v>
       </c>
-      <c r="B29" s="23">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C29" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E29" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H29" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I29" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="B29" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E29" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5294,63 +4870,35 @@
       <c r="A30">
         <v>2050</v>
       </c>
-      <c r="B30" s="23">
-        <v>6.2799999999999995E-2</v>
-      </c>
-      <c r="C30" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D30" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E30" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H30" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I30" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.06</v>
-      </c>
+      <c r="B30" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="I30" s="77"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2051</v>
       </c>
-      <c r="B31" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C31" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D31" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E31" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H31" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I31" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="B31" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E31" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -5358,927 +4906,492 @@
       <c r="A32">
         <v>2052</v>
       </c>
-      <c r="B32" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C32" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D32" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E32" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H32" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I32" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C32" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2053</v>
       </c>
-      <c r="B33" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C33" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E33" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H33" s="20">
-        <v>8.0142406836996249E-2</v>
-      </c>
-      <c r="I33" s="20">
-        <v>6.0138038441437391E-2</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E33" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2054</v>
       </c>
-      <c r="B34" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C34" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D34" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E34" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H34" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I34" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J34" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2055</v>
       </c>
-      <c r="B35" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C35" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D35" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E35" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H35" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I35" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J35" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2056</v>
       </c>
-      <c r="B36" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C36" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D36" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E36" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H36" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I36" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E36" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2057</v>
       </c>
-      <c r="B37" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C37" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E37" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F37" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H37" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I37" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E37" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2058</v>
       </c>
-      <c r="B38" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C38" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D38" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E38" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F38" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H38" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I38" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J38" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E38" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2059</v>
       </c>
-      <c r="B39" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C39" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D39" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E39" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F39" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H39" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I39" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J39" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2060</v>
       </c>
-      <c r="B40" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C40" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D40" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E40" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F40" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G40" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H40" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I40" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J40" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2061</v>
       </c>
-      <c r="B41" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C41" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D41" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E41" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F41" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G41" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H41" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I41" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J41" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D41" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2062</v>
       </c>
-      <c r="B42" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C42" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D42" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E42" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F42" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G42" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H42" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I42" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J42" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E42" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2063</v>
       </c>
-      <c r="B43" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C43" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D43" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E43" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F43" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G43" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H43" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I43" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J43" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E43" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2064</v>
       </c>
-      <c r="B44" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C44" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D44" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E44" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F44" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G44" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H44" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I44" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J44" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E44" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2065</v>
       </c>
-      <c r="B45" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C45" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D45" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E45" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F45" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G45" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H45" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I45" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J45" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C45" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E45" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2066</v>
       </c>
-      <c r="B46" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C46" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D46" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E46" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F46" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G46" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H46" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I46" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J46" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2067</v>
       </c>
-      <c r="B47" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C47" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D47" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E47" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F47" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G47" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H47" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I47" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J47" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C47" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E47" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2068</v>
       </c>
-      <c r="B48" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C48" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D48" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E48" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F48" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G48" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H48" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I48" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J48" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E48" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2069</v>
       </c>
-      <c r="B49" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C49" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D49" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E49" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F49" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G49" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H49" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I49" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J49" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C49" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E49" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2070</v>
       </c>
-      <c r="B50" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C50" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D50" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E50" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G50" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H50" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I50" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C50" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E50" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2071</v>
       </c>
-      <c r="B51" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C51" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D51" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E51" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F51" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G51" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H51" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I51" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J51" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C51" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E51" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2072</v>
       </c>
-      <c r="B52" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C52" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D52" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E52" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F52" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G52" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H52" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I52" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J52" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E52" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2073</v>
       </c>
-      <c r="B53" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C53" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D53" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E53" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F53" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G53" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H53" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I53" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J53" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E53" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2074</v>
       </c>
-      <c r="B54" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C54" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E54" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F54" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G54" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H54" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I54" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J54" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C54" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E54" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2075</v>
       </c>
-      <c r="B55" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C55" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D55" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E55" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F55" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G55" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H55" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I55" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J55" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D55" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E55" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2076</v>
       </c>
-      <c r="B56" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C56" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D56" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E56" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F56" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H56" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I56" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J56" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E56" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2077</v>
       </c>
-      <c r="B57" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C57" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D57" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E57" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G57" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H57" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I57" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J57" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E57" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2078</v>
       </c>
-      <c r="B58" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C58" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D58" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E58" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F58" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G58" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H58" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I58" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J58" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E58" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2079</v>
       </c>
-      <c r="B59" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C59" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D59" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E59" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F59" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G59" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H59" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I59" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J59" s="17">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C59" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2080</v>
       </c>
-      <c r="B60" s="23">
-        <v>-9.7000000000000003E-3</v>
-      </c>
-      <c r="C60" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D60" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="E60" s="15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F60" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="G60" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="H60" s="20">
-        <v>8.0142406836996194E-2</v>
-      </c>
-      <c r="I60" s="20">
-        <v>6.0138038441437398E-2</v>
-      </c>
-      <c r="J60" s="17">
+      <c r="B60" s="15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C60" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.06</v>
+      </c>
+      <c r="E60" s="17">
         <v>0.06</v>
       </c>
     </row>
@@ -6289,10 +5402,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:CZ13"/>
+  <dimension ref="A1:DB13"/>
   <sheetViews>
-    <sheetView topLeftCell="BO1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="CA1" sqref="CA1"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6346,57 +5459,58 @@
     <col min="49" max="49" width="14.5" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="18.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.1640625" customWidth="1"/>
-    <col min="58" max="58" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="15" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="14" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="14" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="16.33203125" customWidth="1"/>
+    <col min="54" max="54" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="23.1640625" customWidth="1"/>
+    <col min="60" max="60" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="14" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="6" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="7" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="91" width="18" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="18" customWidth="1"/>
-    <col min="93" max="93" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="16" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="99" max="101" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="15.6640625" customWidth="1"/>
-    <col min="103" max="103" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="6" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="8" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="18" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="18" customWidth="1"/>
+    <col min="95" max="95" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="103" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="15.6640625" customWidth="1"/>
+    <col min="105" max="105" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -6551,411 +5665,419 @@
         <v>259</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="CB1" s="5" t="s">
+      <c r="CD1" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CE1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CH1" t="s">
         <v>263</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CI1" t="s">
         <v>144</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CJ1" t="s">
         <v>145</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CK1" t="s">
         <v>146</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CL1" t="s">
         <v>285</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CM1" t="s">
         <v>147</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CN1" t="s">
         <v>148</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CO1" t="s">
         <v>149</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CP1" t="s">
         <v>286</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CQ1" t="s">
         <v>289</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CR1" t="s">
         <v>150</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CS1" t="s">
         <v>151</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CT1" t="s">
         <v>152</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CU1" t="s">
         <v>153</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CV1" t="s">
         <v>287</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CW1" t="s">
         <v>154</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CX1" t="s">
         <v>155</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CY1" t="s">
         <v>156</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CZ1" t="s">
         <v>288</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DA1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:104" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43">
+    <row r="2" spans="1:106" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39">
         <v>2016</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <v>1007.764043</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="41">
         <v>1007.764043</v>
       </c>
-      <c r="D2" s="45">
-        <v>0</v>
-      </c>
-      <c r="E2" s="45">
-        <v>0</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="D2" s="41">
+        <v>0</v>
+      </c>
+      <c r="E2" s="41">
+        <v>0</v>
+      </c>
+      <c r="F2" s="25">
         <v>1078.313326</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="25">
         <v>1078.313326</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="48">
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="44">
         <v>12.678458388513357</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="45">
         <v>0.08</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="45">
         <v>0.08</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="45">
         <v>0.08</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="45">
         <v>0.08</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="25">
         <v>3299.3811000000001</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="25">
         <v>3299.3811000000001</v>
       </c>
-      <c r="Q2" s="29">
-        <v>0</v>
-      </c>
-      <c r="R2" s="29">
+      <c r="Q2" s="25">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25">
         <v>107.826127</v>
       </c>
-      <c r="S2" s="51"/>
-      <c r="T2" s="29">
+      <c r="S2" s="47"/>
+      <c r="T2" s="25">
         <v>3299.3811000000001</v>
       </c>
-      <c r="U2" s="29">
+      <c r="U2" s="25">
         <v>3299.3811000000001</v>
       </c>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29">
+      <c r="V2" s="25"/>
+      <c r="W2" s="25">
         <v>107.826127</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="29">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="25">
         <v>2180.7486159999999</v>
       </c>
-      <c r="Z2" s="29">
+      <c r="Z2" s="25">
         <v>2180.7486159999999</v>
       </c>
-      <c r="AA2" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="29">
+      <c r="AA2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="25">
         <v>2324.7836229999998</v>
       </c>
-      <c r="AC2" s="29">
+      <c r="AC2" s="25">
         <v>2324.7836229999998</v>
       </c>
-      <c r="AD2" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="52">
+      <c r="AD2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="48">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="AF2" s="45">
+      <c r="AF2" s="41">
         <v>1118.6324840000002</v>
       </c>
-      <c r="AG2" s="45">
+      <c r="AG2" s="41">
         <v>1118.6324840000002</v>
       </c>
-      <c r="AH2" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="45">
+      <c r="AH2" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="41">
         <v>974.59747700000025</v>
       </c>
-      <c r="AJ2" s="45">
+      <c r="AJ2" s="41">
         <v>974.59747700000025</v>
       </c>
-      <c r="AK2" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="53">
+      <c r="AK2" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="49">
         <v>0.66095687339664999</v>
       </c>
-      <c r="AM2" s="54">
+      <c r="AM2" s="50">
         <v>0.70461203254149685</v>
       </c>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="37">
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="33">
         <v>2050</v>
       </c>
-      <c r="AP2" s="56">
+      <c r="AP2" s="52">
         <v>0.1</v>
       </c>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="49">
+      <c r="AQ2" s="46"/>
+      <c r="AR2" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="45">
         <v>0.03</v>
       </c>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="49">
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="45">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="AW2" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="75">
-        <f>BB2+BC2</f>
+      <c r="AW2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="71">
+        <f>BD2+BE2</f>
         <v>-145.864485</v>
       </c>
-      <c r="BB2" s="44">
+      <c r="BD2" s="40">
         <v>-145.864485</v>
       </c>
-      <c r="BC2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="75">
-        <f>BA2</f>
+      <c r="BE2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="71">
+        <f>BC2</f>
         <v>-145.864485</v>
       </c>
-      <c r="BF2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="29">
+      <c r="BH2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="25">
         <v>-2.4811869999999998</v>
       </c>
-      <c r="BI2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="29">
+      <c r="BK2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="25">
         <f>71.996797</f>
         <v>71.996797000000001</v>
       </c>
-      <c r="BK2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN2" s="45">
+      <c r="BM2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="41">
         <v>8.9056060000000006</v>
       </c>
-      <c r="BO2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="29">
-        <v>0</v>
-      </c>
-      <c r="BQ2" s="29">
+      <c r="BQ2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="25">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="25">
         <v>53.512270683299995</v>
       </c>
-      <c r="BR2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS2" s="29">
+      <c r="BT2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="25">
         <v>19.448217316700003</v>
       </c>
-      <c r="BT2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX2" s="45">
+      <c r="BV2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="41">
         <v>153.86289100000002</v>
       </c>
-      <c r="BY2" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA2" s="59">
-        <v>153.86289100000002</v>
-      </c>
-      <c r="CB2" s="42">
-        <f>CC2+AI2</f>
+      <c r="CA2" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="55">
+        <f>BS2+BU2</f>
+        <v>72.960487999999998</v>
+      </c>
+      <c r="CD2" s="38">
+        <f>CE2+AI2</f>
         <v>974.59747700000025</v>
       </c>
-      <c r="CC2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF2" s="65">
-        <f>BB2+BH2+BG2+BJ2+BL2+BQ2+BS2+BP2+BN2</f>
+      <c r="CE2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="10">
+        <f>CC2/B2</f>
+        <v>7.2398383834776286E-2</v>
+      </c>
+      <c r="CH2" s="61">
+        <f>BD2+BJ2+BI2+BL2+BN2+BS2+BU2+BR2+BP2</f>
         <v>5.5172189999999919</v>
       </c>
-      <c r="CG2"/>
-      <c r="CH2"/>
       <c r="CI2"/>
-      <c r="CJ2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
+      <c r="CJ2"/>
+      <c r="CK2"/>
       <c r="CL2">
         <v>0</v>
       </c>
@@ -6965,15 +6087,15 @@
       <c r="CN2">
         <v>0</v>
       </c>
-      <c r="CO2"/>
-      <c r="CP2" s="38">
-        <f>BC2+BI2+BK2+BM2+BR2+BP2+BO2+BT2</f>
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2"/>
+      <c r="CR2" s="34">
+        <f>BE2+BK2+BM2+BO2+BT2+BR2+BQ2+BV2</f>
         <v>0</v>
       </c>
       <c r="CS2">
@@ -6997,284 +6119,292 @@
       <c r="CY2">
         <v>0</v>
       </c>
-      <c r="CZ2"/>
-    </row>
-    <row r="3" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A3" s="43">
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2"/>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A3" s="39">
         <v>2017</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="40">
         <v>1020.843253</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>1020.843253</v>
       </c>
-      <c r="D3" s="45">
-        <v>0</v>
-      </c>
-      <c r="E3" s="45">
-        <v>0</v>
-      </c>
-      <c r="F3" s="29">
+      <c r="D3" s="41">
+        <v>0</v>
+      </c>
+      <c r="E3" s="41">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
         <v>1091.4255579999999</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="25">
         <v>1091.4255579999999</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="48">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="44">
         <v>13.122204432111324</v>
       </c>
-      <c r="K3" s="49">
+      <c r="K3" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="25">
         <v>3618.0839729999998</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="25">
         <v>3618.0839729999998</v>
       </c>
-      <c r="Q3" s="29">
-        <v>0</v>
-      </c>
-      <c r="R3" s="29">
+      <c r="Q3" s="25">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25">
         <v>117.029448</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="29">
+      <c r="S3" s="41"/>
+      <c r="T3" s="25">
         <v>3618.0839729999998</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="25">
         <v>3618.0839729999998</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29">
+      <c r="V3" s="25"/>
+      <c r="W3" s="25">
         <v>117.029448</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="29">
+      <c r="X3" s="41"/>
+      <c r="Y3" s="25">
         <v>2529.6310079999998</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="25">
         <v>2529.6310079999998</v>
       </c>
-      <c r="AA3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="29">
+      <c r="AA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="25">
         <v>2620.5457529999999</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="25">
         <v>2620.5457529999999</v>
       </c>
-      <c r="AD3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="52">
+      <c r="AD3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="48">
         <v>0.129</v>
       </c>
-      <c r="AF3" s="45">
+      <c r="AF3" s="41">
         <v>1088.4529649999999</v>
       </c>
-      <c r="AG3" s="45">
+      <c r="AG3" s="41">
         <v>1088.4529649999999</v>
       </c>
-      <c r="AH3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="45">
+      <c r="AH3" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="41">
         <v>997.53821999999991</v>
       </c>
-      <c r="AJ3" s="45">
+      <c r="AJ3" s="41">
         <v>997.53821999999991</v>
       </c>
-      <c r="AK3" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="53">
+      <c r="AK3" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="49">
         <v>0.69916315565846598</v>
       </c>
-      <c r="AM3" s="54">
+      <c r="AM3" s="50">
         <v>0.72429102601151818</v>
       </c>
-      <c r="AN3" s="54"/>
-      <c r="AP3" s="56">
+      <c r="AN3" s="50"/>
+      <c r="AP3" s="52">
         <v>0.10722623008247349</v>
       </c>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50">
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46">
         <v>3.7226230082473485E-2</v>
       </c>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="49">
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="45">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="AW3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="75">
-        <f t="shared" ref="BA3:BA7" si="0">BB3+BC3</f>
+      <c r="AW3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="71">
+        <f t="shared" ref="BC3:BC7" si="0">BD3+BE3</f>
         <v>-158.544085</v>
       </c>
-      <c r="BB3" s="44">
+      <c r="BD3" s="40">
         <v>-158.544085</v>
       </c>
-      <c r="BC3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="75">
-        <f t="shared" ref="BE3:BE7" si="1">BA3</f>
+      <c r="BE3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="71">
+        <f t="shared" ref="BG3:BG7" si="1">BC3</f>
         <v>-158.544085</v>
       </c>
-      <c r="BF3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="29">
+      <c r="BH3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="25">
         <v>-2.5472649999999999</v>
       </c>
-      <c r="BI3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="29">
+      <c r="BK3" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="25">
         <v>73.287125000000003</v>
       </c>
-      <c r="BK3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="29">
+      <c r="BM3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="25">
         <v>9.7849079999999997</v>
       </c>
-      <c r="BO3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="45">
+      <c r="BQ3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="41">
         <v>30.625297589999999</v>
       </c>
-      <c r="BR3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="29">
+      <c r="BT3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="25">
         <v>43.398257409999999</v>
       </c>
-      <c r="BT3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="45">
+      <c r="BV3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="41">
         <v>157.09558800000002</v>
       </c>
-      <c r="BY3" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="59">
-        <v>157.09558800000002</v>
-      </c>
-      <c r="CC3" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF3" s="65">
-        <f t="shared" ref="CF3:CF6" si="2">BB3+BH3+BG3+BJ3+BL3+BQ3+BS3+BP3+BN3</f>
+      <c r="CA3" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="55">
+        <f t="shared" ref="CC3:CC7" si="2">BS3+BU3</f>
+        <v>74.023555000000002</v>
+      </c>
+      <c r="CE3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="10">
+        <f t="shared" ref="CG3:CG7" si="3">CC3/B3</f>
+        <v>7.251216558709038E-2</v>
+      </c>
+      <c r="CH3" s="61">
+        <f t="shared" ref="CH3:CH6" si="4">BD3+BJ3+BI3+BL3+BN3+BS3+BU3+BR3+BP3</f>
         <v>-3.9957620000000009</v>
       </c>
-      <c r="CG3" s="66">
-        <f>AC2*L2+CF3*((1+L2)^0.5-1)</f>
+      <c r="CI3" s="62">
+        <f>AC2*L2+CH3*((1+L2)^0.5-1)</f>
         <v>185.82593416062815</v>
       </c>
-      <c r="CH3" s="66">
-        <f>AC2+CF3+CG3</f>
+      <c r="CJ3" s="62">
+        <f>AC2+CH3+CI3</f>
         <v>2506.6137951606279</v>
       </c>
-      <c r="CI3" s="66">
-        <f>AC3-CH3</f>
+      <c r="CK3" s="62">
+        <f>AC3-CJ3</f>
         <v>113.93195783937199</v>
       </c>
-      <c r="CJ3" s="66">
-        <f>CI3*0.2</f>
+      <c r="CL3" s="62">
+        <f>CK3*0.2</f>
         <v>22.7863915678744</v>
       </c>
-      <c r="CK3" s="66">
-        <f>CJ2</f>
-        <v>0</v>
-      </c>
-      <c r="CL3" s="66">
-        <f t="shared" ref="CL3:CO3" si="3">CK2</f>
-        <v>0</v>
-      </c>
-      <c r="CM3" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CN3" s="66">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="CO3" s="66">
-        <f>SUM(CJ3:CN3)</f>
+      <c r="CM3" s="62">
+        <f>CL2</f>
+        <v>0</v>
+      </c>
+      <c r="CN3" s="62">
+        <f t="shared" ref="CN3:CP3" si="5">CM2</f>
+        <v>0</v>
+      </c>
+      <c r="CO3" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CP3" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="62">
+        <f>SUM(CL3:CP3)</f>
         <v>22.7863915678744</v>
       </c>
-      <c r="CP3" s="38">
-        <f t="shared" ref="CP3:CP6" si="4">BC3+BI3+BK3+BM3+BR3+BP3+BO3+BT3</f>
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
+      <c r="CR3" s="34">
+        <f t="shared" ref="CR3:CR6" si="6">BE3+BK3+BM3+BO3+BT3+BR3+BQ3+BV3</f>
         <v>0</v>
       </c>
       <c r="CS3">
@@ -7298,283 +6428,291 @@
       <c r="CY3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A4" s="39">
         <v>2018</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="40">
         <v>1027.317202</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="25">
         <v>1027.317202</v>
       </c>
-      <c r="D4" s="45">
-        <v>0</v>
-      </c>
-      <c r="E4" s="45">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="D4" s="41">
+        <v>0</v>
+      </c>
+      <c r="E4" s="41">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
         <v>1098.1398569999999</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="25">
         <v>1098.1398569999999</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="48">
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="44">
         <v>13.581481587235221</v>
       </c>
-      <c r="K4" s="49">
+      <c r="K4" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="45">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="25">
         <v>3841.7011790000001</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="25">
         <v>3841.7011790000001</v>
       </c>
-      <c r="Q4" s="29">
-        <v>0</v>
-      </c>
-      <c r="R4" s="29">
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
         <v>118.922545</v>
       </c>
-      <c r="S4" s="45"/>
-      <c r="T4" s="29">
+      <c r="S4" s="41"/>
+      <c r="T4" s="25">
         <v>3841.7011790000001</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="25">
         <v>3841.7011790000001</v>
       </c>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29">
+      <c r="V4" s="25"/>
+      <c r="W4" s="25">
         <v>118.922545</v>
       </c>
-      <c r="X4" s="45"/>
-      <c r="Y4" s="29">
+      <c r="X4" s="41"/>
+      <c r="Y4" s="25">
         <v>2752.0533049999999</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="25">
         <v>2752.0533049999999</v>
       </c>
-      <c r="AA4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="29">
+      <c r="AA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="25">
         <v>2849.3190749999999</v>
       </c>
-      <c r="AC4" s="29">
+      <c r="AC4" s="25">
         <v>2849.3190749999999</v>
       </c>
-      <c r="AD4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="52">
+      <c r="AD4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="48">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="AF4" s="45">
+      <c r="AF4" s="41">
         <v>1089.6478740000002</v>
       </c>
-      <c r="AG4" s="45">
+      <c r="AG4" s="41">
         <v>1089.6478740000002</v>
       </c>
-      <c r="AH4" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="45">
+      <c r="AH4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="41">
         <v>992.38210400000025</v>
       </c>
-      <c r="AJ4" s="45">
+      <c r="AJ4" s="41">
         <v>992.38210400000025</v>
       </c>
-      <c r="AK4" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="53">
+      <c r="AK4" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="49">
         <v>0.71636318827805423</v>
       </c>
-      <c r="AM4" s="54">
+      <c r="AM4" s="50">
         <v>0.74168159943707057</v>
       </c>
-      <c r="AN4" s="54"/>
-      <c r="AP4" s="56">
+      <c r="AN4" s="50"/>
+      <c r="AP4" s="52">
         <v>0.10829453483719607</v>
       </c>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50">
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46">
         <v>3.8294534837196068E-2</v>
       </c>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="49">
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="45">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="AW4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="75">
+      <c r="AW4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="71">
         <f t="shared" si="0"/>
         <v>-177.047022</v>
       </c>
-      <c r="BB4" s="44">
+      <c r="BD4" s="40">
         <v>-177.047022</v>
       </c>
-      <c r="BC4" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="75">
+      <c r="BE4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="71">
         <f t="shared" si="1"/>
         <v>-177.047022</v>
       </c>
-      <c r="BF4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="29">
+      <c r="BH4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="25">
         <v>-2.4030459999999998</v>
       </c>
-      <c r="BI4" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="29">
+      <c r="BK4" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="25">
         <v>74.724650999999994</v>
       </c>
-      <c r="BK4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="29">
+      <c r="BM4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="25">
         <v>19.160584</v>
       </c>
-      <c r="BO4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="45">
+      <c r="BQ4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="41">
         <v>38.243146529334886</v>
       </c>
-      <c r="BR4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="29">
+      <c r="BT4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="25">
         <v>37.42315347066512</v>
       </c>
-      <c r="BT4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="45">
+      <c r="BV4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="41">
         <v>169.551535</v>
       </c>
-      <c r="BY4" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="59">
-        <v>169.551535</v>
-      </c>
-      <c r="CC4" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF4" s="65">
+      <c r="CA4" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="55">
         <f t="shared" si="2"/>
+        <v>75.666300000000007</v>
+      </c>
+      <c r="CE4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="10">
+        <f t="shared" si="3"/>
+        <v>7.3654271390269199E-2</v>
+      </c>
+      <c r="CH4" s="61">
+        <f t="shared" si="4"/>
         <v>-9.8985329999999792</v>
       </c>
-      <c r="CG4" s="66">
-        <f t="shared" ref="CG4:CG7" si="5">AC3*L3+CF4*((1+L3)^0.5-1)</f>
+      <c r="CI4" s="62">
+        <f t="shared" ref="CI4:CI7" si="7">AC3*L3+CH4*((1+L3)^0.5-1)</f>
         <v>202.71588459451851</v>
       </c>
-      <c r="CH4" s="66">
-        <f t="shared" ref="CH4:CH6" si="6">AC3+CF4+CG4</f>
+      <c r="CJ4" s="62">
+        <f t="shared" ref="CJ4:CJ6" si="8">AC3+CH4+CI4</f>
         <v>2813.3631045945185</v>
       </c>
-      <c r="CI4" s="66">
-        <f t="shared" ref="CI4:CI6" si="7">AC4-CH4</f>
+      <c r="CK4" s="62">
+        <f t="shared" ref="CK4:CK6" si="9">AC4-CJ4</f>
         <v>35.955970405481366</v>
       </c>
-      <c r="CJ4" s="66">
-        <f t="shared" ref="CJ4:CJ7" si="8">CI4*0.2</f>
+      <c r="CL4" s="62">
+        <f t="shared" ref="CL4:CL7" si="10">CK4*0.2</f>
         <v>7.191194081096274</v>
       </c>
-      <c r="CK4" s="66">
-        <f t="shared" ref="CK4:CO7" si="9">CJ3</f>
+      <c r="CM4" s="62">
+        <f t="shared" ref="CM4:CP7" si="11">CL3</f>
         <v>22.7863915678744</v>
       </c>
-      <c r="CL4" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CM4" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CN4" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CO4" s="66">
-        <f t="shared" ref="CO4:CO7" si="10">SUM(CJ4:CN4)</f>
+      <c r="CN4" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="62">
+        <f t="shared" ref="CQ4:CQ7" si="12">SUM(CL4:CP4)</f>
         <v>29.977585648970674</v>
       </c>
-      <c r="CP4" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
+      <c r="CR4" s="34">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CS4">
@@ -7598,285 +6736,293 @@
       <c r="CY4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A5" s="39">
         <v>2019</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="40">
         <v>1040.1701740000001</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="25">
         <v>1040.1701740000001</v>
       </c>
-      <c r="D5" s="45">
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="D5" s="41">
+        <v>0</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
         <v>1112.628109</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="25">
         <v>1112.628109</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="48">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="44">
         <v>14.056833442788452</v>
       </c>
-      <c r="K5" s="49">
+      <c r="K5" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="L5" s="49">
+      <c r="L5" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="M5" s="49">
+      <c r="M5" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N5" s="49">
+      <c r="N5" s="45">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="25">
         <v>4136.2529869999998</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="25">
         <v>4136.2529869999998</v>
       </c>
-      <c r="Q5" s="29">
-        <v>0</v>
-      </c>
-      <c r="R5" s="29">
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
         <v>126.95711300000001</v>
       </c>
-      <c r="S5" s="45"/>
-      <c r="T5" s="29">
+      <c r="S5" s="41"/>
+      <c r="T5" s="25">
         <v>4136.2529869999998</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="25">
         <v>4136.2529869999998</v>
       </c>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29">
+      <c r="V5" s="25"/>
+      <c r="W5" s="25">
         <v>126.95711300000001</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="29">
+      <c r="X5" s="41"/>
+      <c r="Y5" s="25">
         <v>2949.9670489999999</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="25">
         <v>2949.9670489999999</v>
       </c>
-      <c r="AA5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="29">
+      <c r="AA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="25">
         <v>2964.1806280000001</v>
       </c>
-      <c r="AC5" s="29">
+      <c r="AC5" s="25">
         <v>2964.1806280000001</v>
       </c>
-      <c r="AD5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="52">
+      <c r="AD5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="48">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="AF5" s="45">
+      <c r="AF5" s="41">
         <v>1186.285938</v>
       </c>
-      <c r="AG5" s="45">
+      <c r="AG5" s="41">
         <v>1186.285938</v>
       </c>
-      <c r="AH5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="45">
+      <c r="AH5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="41">
         <v>1172.0723589999998</v>
       </c>
-      <c r="AJ5" s="45">
+      <c r="AJ5" s="41">
         <v>1172.0723589999998</v>
       </c>
-      <c r="AK5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="53">
+      <c r="AK5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="49">
         <v>0.71319792533763604</v>
       </c>
-      <c r="AM5" s="54">
+      <c r="AM5" s="50">
         <v>0.71663426712927025</v>
       </c>
-      <c r="AN5" s="54"/>
-      <c r="AP5" s="56">
+      <c r="AN5" s="50"/>
+      <c r="AP5" s="52">
         <v>0.11410561352265819</v>
       </c>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50">
+      <c r="AQ5" s="46"/>
+      <c r="AR5" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS5" s="46"/>
+      <c r="AT5" s="46">
         <v>4.4105613522658182E-2</v>
       </c>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="49">
+      <c r="AU5" s="46"/>
+      <c r="AV5" s="45">
         <v>7.5800000000000006E-2</v>
       </c>
-      <c r="AW5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="75">
+      <c r="AW5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="71">
         <f t="shared" si="0"/>
         <v>-191.905089</v>
       </c>
-      <c r="BB5" s="44">
+      <c r="BD5" s="40">
         <v>-191.905089</v>
       </c>
-      <c r="BC5" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="75">
+      <c r="BE5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="71">
         <f t="shared" si="1"/>
         <v>-191.905089</v>
       </c>
-      <c r="BF5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="29">
+      <c r="BH5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="25">
         <f>-2455262/1000000</f>
         <v>-2.4552619999999998</v>
       </c>
-      <c r="BI5" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="29">
+      <c r="BK5" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="25">
         <f>74974506/1000000</f>
         <v>74.974506000000005</v>
       </c>
-      <c r="BK5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="29">
+      <c r="BM5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="25">
         <v>7.0740879999999997</v>
       </c>
-      <c r="BO5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="45">
+      <c r="BQ5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="41">
         <v>39.832832964855299</v>
       </c>
-      <c r="BR5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="29">
+      <c r="BT5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="25">
         <v>35.897427035144702</v>
       </c>
-      <c r="BT5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="45">
+      <c r="BV5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="41">
         <v>157.77885400000002</v>
       </c>
-      <c r="BY5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="59">
-        <v>157.77885400000002</v>
-      </c>
-      <c r="CC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF5" s="65">
+      <c r="CA5" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="55">
         <f t="shared" si="2"/>
+        <v>75.730260000000001</v>
+      </c>
+      <c r="CE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="10">
+        <f t="shared" si="3"/>
+        <v>7.2805644588690155E-2</v>
+      </c>
+      <c r="CH5" s="61">
+        <f t="shared" si="4"/>
         <v>-36.581496999999999</v>
       </c>
-      <c r="CG5" s="66">
-        <f t="shared" si="5"/>
+      <c r="CI5" s="62">
+        <f t="shared" si="7"/>
         <v>219.43114465520219</v>
       </c>
-      <c r="CH5" s="66">
+      <c r="CJ5" s="62">
+        <f t="shared" si="8"/>
+        <v>3032.1687226552021</v>
+      </c>
+      <c r="CK5" s="62">
+        <f t="shared" si="9"/>
+        <v>-67.988094655202076</v>
+      </c>
+      <c r="CL5" s="62">
+        <f t="shared" si="10"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CM5" s="62">
+        <f t="shared" si="11"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CN5" s="62">
+        <f t="shared" si="11"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CO5" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CP5" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="62">
+        <f t="shared" si="12"/>
+        <v>16.379966717930259</v>
+      </c>
+      <c r="CR5" s="34">
         <f t="shared" si="6"/>
-        <v>3032.1687226552021</v>
-      </c>
-      <c r="CI5" s="66">
-        <f t="shared" si="7"/>
-        <v>-67.988094655202076</v>
-      </c>
-      <c r="CJ5" s="66">
-        <f t="shared" si="8"/>
-        <v>-13.597618931040415</v>
-      </c>
-      <c r="CK5" s="66">
-        <f t="shared" si="9"/>
-        <v>7.191194081096274</v>
-      </c>
-      <c r="CL5" s="66">
-        <f t="shared" si="9"/>
-        <v>22.7863915678744</v>
-      </c>
-      <c r="CM5" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CN5" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CO5" s="66">
-        <f t="shared" si="10"/>
-        <v>16.379966717930259</v>
-      </c>
-      <c r="CP5" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
         <v>0</v>
       </c>
       <c r="CS5">
@@ -7900,291 +7046,299 @@
       <c r="CY5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A6" s="43">
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A6" s="39">
         <v>2020</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="42">
         <v>1103.120694</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="43">
         <v>1103.120694</v>
       </c>
-      <c r="D6" s="45">
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
+      <c r="D6" s="41">
+        <v>0</v>
+      </c>
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="41">
         <v>1141.7299182899999</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="41">
         <v>1070.0270731799999</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="41">
         <v>71.702845109999998</v>
       </c>
-      <c r="I6" s="45">
-        <v>0</v>
-      </c>
-      <c r="J6" s="48">
+      <c r="I6" s="41">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44">
         <v>14.548822613286047</v>
       </c>
-      <c r="K6" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M6" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N6" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O6" s="29">
+      <c r="K6" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M6" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N6" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O6" s="25">
         <v>4557.6790199999996</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="25">
         <v>4557.6790199999996</v>
       </c>
-      <c r="Q6" s="29">
-        <v>0</v>
-      </c>
-      <c r="R6" s="45">
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="41">
         <v>127</v>
       </c>
-      <c r="S6" s="45"/>
-      <c r="T6" s="29">
+      <c r="S6" s="41"/>
+      <c r="T6" s="25">
         <v>4557.6790199999996</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="25">
         <v>4557.6790199999996</v>
       </c>
-      <c r="V6" s="29"/>
-      <c r="W6" s="45">
+      <c r="V6" s="25"/>
+      <c r="W6" s="41">
         <v>127</v>
       </c>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="29">
+      <c r="X6" s="41"/>
+      <c r="Y6" s="25">
         <v>3112.9200329999999</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="25">
         <v>3112.9200329999999</v>
       </c>
-      <c r="AA6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="29">
+      <c r="AA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="25">
         <v>3011.4992940000002</v>
       </c>
-      <c r="AC6" s="47">
+      <c r="AC6" s="43">
         <v>3011.4992940000002</v>
       </c>
-      <c r="AD6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="55">
+      <c r="AD6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="51">
         <v>3.2899999999999999E-2</v>
       </c>
-      <c r="AF6" s="45">
+      <c r="AF6" s="41">
         <v>1444.7589869999997</v>
       </c>
-      <c r="AG6" s="45">
+      <c r="AG6" s="41">
         <v>1444.7589869999997</v>
       </c>
-      <c r="AH6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="45">
+      <c r="AH6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="41">
         <v>1546.1797259999994</v>
       </c>
-      <c r="AJ6" s="45">
+      <c r="AJ6" s="41">
         <v>1546.1797259999994</v>
       </c>
-      <c r="AK6" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="53">
+      <c r="AK6" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="49">
         <v>0.68300554280805847</v>
       </c>
-      <c r="AM6" s="54">
+      <c r="AM6" s="50">
         <v>0.6607528263365946</v>
       </c>
-      <c r="AN6" s="54"/>
-      <c r="AP6" s="57">
+      <c r="AN6" s="50"/>
+      <c r="AP6" s="53">
         <v>0.11174767343391631</v>
       </c>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS6" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT6" s="50">
+      <c r="AQ6" s="46"/>
+      <c r="AR6" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS6" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT6" s="46">
         <v>4.1747673433916305E-2</v>
       </c>
-      <c r="AU6" s="50"/>
-      <c r="AV6" s="49">
+      <c r="AU6" s="46"/>
+      <c r="AV6" s="45">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="AW6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="75">
+      <c r="AW6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="71">
         <f t="shared" si="0"/>
         <v>-212.14052699999999</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BD6" s="40">
         <v>-212.14052699999999</v>
       </c>
-      <c r="BC6" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="75">
+      <c r="BE6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="71">
         <f t="shared" si="1"/>
         <v>-212.14052699999999</v>
       </c>
-      <c r="BF6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="29">
+      <c r="BH6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="25">
         <f>-2639036/1000000</f>
         <v>-2.6390359999999999</v>
       </c>
-      <c r="BI6" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="29">
+      <c r="BK6" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="25">
         <f>77718958/1000000</f>
         <v>77.718958000000001</v>
       </c>
-      <c r="BK6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="29">
+      <c r="BM6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="25">
         <v>9.8819210000000002</v>
       </c>
-      <c r="BO6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="45">
+      <c r="BQ6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="41">
         <v>48.653814998410475</v>
       </c>
-      <c r="BR6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="29">
+      <c r="BT6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="25">
         <v>29.456746001589529</v>
       </c>
-      <c r="BT6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="45">
+      <c r="BV6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="41">
         <v>165.71144000000001</v>
       </c>
-      <c r="BY6" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="59">
-        <v>165.71144000000001</v>
-      </c>
-      <c r="CC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF6" s="65">
+      <c r="CA6" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="55">
         <f t="shared" si="2"/>
+        <v>78.110561000000004</v>
+      </c>
+      <c r="CE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="10">
+        <f t="shared" si="3"/>
+        <v>7.0808716965289759E-2</v>
+      </c>
+      <c r="CH6" s="61">
+        <f t="shared" si="4"/>
         <v>-49.068123000000014</v>
       </c>
-      <c r="CG6" s="66">
-        <f t="shared" si="5"/>
+      <c r="CI6" s="62">
+        <f t="shared" si="7"/>
         <v>220.50675735463145</v>
       </c>
-      <c r="CH6" s="66">
+      <c r="CJ6" s="62">
+        <f t="shared" si="8"/>
+        <v>3135.6192623546317</v>
+      </c>
+      <c r="CK6" s="62">
+        <f t="shared" si="9"/>
+        <v>-124.11996835463151</v>
+      </c>
+      <c r="CL6" s="62">
+        <f t="shared" si="10"/>
+        <v>-24.823993670926303</v>
+      </c>
+      <c r="CM6" s="62">
+        <f t="shared" si="11"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CN6" s="62">
+        <f t="shared" si="11"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CO6" s="62">
+        <f t="shared" si="11"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CP6" s="62">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="62">
+        <f t="shared" si="12"/>
+        <v>-8.4440269529960403</v>
+      </c>
+      <c r="CR6" s="34">
         <f t="shared" si="6"/>
-        <v>3135.6192623546317</v>
-      </c>
-      <c r="CI6" s="66">
-        <f t="shared" si="7"/>
-        <v>-124.11996835463151</v>
-      </c>
-      <c r="CJ6" s="66">
-        <f t="shared" si="8"/>
-        <v>-24.823993670926303</v>
-      </c>
-      <c r="CK6" s="66">
-        <f t="shared" si="9"/>
-        <v>-13.597618931040415</v>
-      </c>
-      <c r="CL6" s="66">
-        <f t="shared" si="9"/>
-        <v>7.191194081096274</v>
-      </c>
-      <c r="CM6" s="66">
-        <f t="shared" si="9"/>
-        <v>22.7863915678744</v>
-      </c>
-      <c r="CN6" s="66">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="CO6" s="66">
-        <f t="shared" si="10"/>
-        <v>-8.4440269529960403</v>
-      </c>
-      <c r="CP6" s="38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
         <v>0</v>
       </c>
       <c r="CS6">
@@ -8208,301 +7362,318 @@
       <c r="CY6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="A7" s="43">
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A7" s="39">
         <v>2021</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="42">
         <f>1132390738/1000000</f>
         <v>1132.3907380000001</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="43">
         <f>B7</f>
         <v>1132.3907380000001</v>
       </c>
-      <c r="D7" s="45">
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L7" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="M7" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N7" s="49">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="O7" s="29">
+      <c r="D7" s="41">
+        <v>0</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L7" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M7" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7" s="45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O7" s="25">
         <f>4795054158/1000000</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="P7" s="29">
+      <c r="P7" s="25">
         <f>O7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="Q7" s="29">
-        <v>0</v>
-      </c>
-      <c r="R7" s="67">
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="63">
         <v>143</v>
       </c>
-      <c r="S7" s="67">
-        <v>0</v>
-      </c>
-      <c r="T7" s="29">
+      <c r="S7" s="63">
+        <v>0</v>
+      </c>
+      <c r="T7" s="25">
         <f>O7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="25">
         <f>T7</f>
         <v>4795.0541579999999</v>
       </c>
-      <c r="V7" s="29"/>
-      <c r="W7" s="67">
+      <c r="V7" s="25"/>
+      <c r="W7" s="63">
         <f>R7</f>
         <v>143</v>
       </c>
-      <c r="X7" s="67">
+      <c r="X7" s="63">
         <f>S7</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="25">
         <f>3369943759/1000000</f>
         <v>3369.9437589999998</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="25">
         <f>Y7</f>
         <v>3369.9437589999998</v>
       </c>
-      <c r="AA7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="29">
+      <c r="AA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="25">
         <f>T7-AI7</f>
         <v>3752.753612</v>
       </c>
-      <c r="AC7" s="47">
+      <c r="AC7" s="43">
         <f>AB7</f>
         <v>3752.753612</v>
       </c>
-      <c r="AD7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="55">
+      <c r="AD7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="51">
         <v>0.27150000000000002</v>
       </c>
-      <c r="AF7" s="45">
+      <c r="AF7" s="41">
         <f>1425110399/1000000</f>
         <v>1425.1103989999999</v>
       </c>
-      <c r="AG7" s="45">
+      <c r="AG7" s="41">
         <f>AF7</f>
         <v>1425.1103989999999</v>
       </c>
-      <c r="AH7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="45">
+      <c r="AH7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="41">
         <f>1042300546/1000000</f>
         <v>1042.3005459999999</v>
       </c>
-      <c r="AJ7" s="45">
+      <c r="AJ7" s="41">
         <f>AI7</f>
         <v>1042.3005459999999</v>
       </c>
-      <c r="AK7" s="45">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="70">
-        <v>0.68300554280805847</v>
-      </c>
-      <c r="AM7" s="71">
-        <v>0.6607528263365946</v>
-      </c>
-      <c r="AN7" s="54"/>
-      <c r="AP7" s="57">
+      <c r="AK7" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="66">
+        <f>Y7/T7</f>
+        <v>0.70279576579497727</v>
+      </c>
+      <c r="AM7" s="67">
+        <f>AB7/T7</f>
+        <v>0.78263007848179555</v>
+      </c>
+      <c r="AN7" s="50"/>
+      <c r="AP7" s="53">
         <v>0.1119</v>
       </c>
-      <c r="AQ7" s="68">
+      <c r="AQ7" s="64">
         <v>9.9842411832325936E-2</v>
       </c>
-      <c r="AR7" s="56">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AS7" s="50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AT7" s="50">
+      <c r="AR7" s="52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS7" s="46">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT7" s="46">
         <v>4.19E-2</v>
       </c>
-      <c r="AU7" s="68">
+      <c r="AU7" s="64">
         <v>2.984241183232593E-2</v>
       </c>
-      <c r="AV7" s="49">
+      <c r="AV7" s="45">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="AW7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="75">
+      <c r="AW7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="71">
         <f t="shared" si="0"/>
         <v>-222.25549880469276</v>
       </c>
-      <c r="BB7" s="44">
+      <c r="BD7" s="40">
         <v>-222.25549880469276</v>
       </c>
-      <c r="BC7" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="75">
+      <c r="BE7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="71">
         <f t="shared" si="1"/>
         <v>-222.25549880469276</v>
       </c>
-      <c r="BF7" s="67">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="67">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="69">
-        <f>-2639036/1000000</f>
-        <v>-2.6390359999999999</v>
-      </c>
-      <c r="BI7" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="69">
-        <f>77718958/1000000</f>
-        <v>77.718958000000001</v>
-      </c>
-      <c r="BK7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="69">
+      <c r="BH7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="65">
+        <f>BJ6*1.035</f>
+        <v>-2.7314022599999999</v>
+      </c>
+      <c r="BK7" s="25">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="65">
+        <f>BL6*1.035</f>
+        <v>80.439121529999994</v>
+      </c>
+      <c r="BM7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BP7" s="65">
         <v>9.8819210000000002</v>
       </c>
-      <c r="BO7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="67">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="67">
-        <v>48.653814998410475</v>
-      </c>
-      <c r="BR7" s="67">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="69">
-        <v>29.456746001589529</v>
-      </c>
-      <c r="BT7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="45"/>
-      <c r="BY7" s="45">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="45">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="59"/>
-      <c r="CC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="10">
-        <v>0.12</v>
-      </c>
-      <c r="CF7" s="65">
-        <f t="shared" ref="CF7" si="11">BB7+BH7+BG7+BJ7+BL7+BQ7+BS7+BP7+BN7</f>
-        <v>-59.183094804692765</v>
-      </c>
-      <c r="CG7" s="66">
-        <f t="shared" si="5"/>
-        <v>208.76857609258329</v>
-      </c>
-      <c r="CH7" s="66">
-        <f t="shared" ref="CH7" si="12">AC6+CF7+CG7</f>
-        <v>3161.0847752878908</v>
-      </c>
-      <c r="CI7" s="66">
-        <f t="shared" ref="CI7" si="13">AC7-CH7</f>
-        <v>591.66883671210917</v>
-      </c>
-      <c r="CJ7" s="66">
-        <f t="shared" si="8"/>
-        <v>118.33376734242184</v>
-      </c>
-      <c r="CK7" s="66">
-        <f t="shared" si="9"/>
+      <c r="BQ7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="65">
+        <f>BS6*1.035</f>
+        <v>50.356698523354837</v>
+      </c>
+      <c r="BT7" s="63">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="65">
+        <f>BU6*1.035</f>
+        <v>30.487732111645162</v>
+      </c>
+      <c r="BV7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BX7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="41">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="41">
+        <f>SUM(BL7:BY7)</f>
+        <v>171.16547316500001</v>
+      </c>
+      <c r="CA7" s="41">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="41">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="55">
+        <f t="shared" si="2"/>
+        <v>80.844430634999995</v>
+      </c>
+      <c r="CE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="10">
+        <f t="shared" si="3"/>
+        <v>7.1392698581927108E-2</v>
+      </c>
+      <c r="CH7" s="61">
+        <f t="shared" ref="CH7" si="13">BD7+BJ7+BI7+BL7+BN7+BS7+BU7+BR7+BP7</f>
+        <v>-53.821427899692786</v>
+      </c>
+      <c r="CI7" s="62">
+        <f t="shared" si="7"/>
+        <v>208.95306055949735</v>
+      </c>
+      <c r="CJ7" s="62">
+        <f t="shared" ref="CJ7" si="14">AC6+CH7+CI7</f>
+        <v>3166.6309266598046</v>
+      </c>
+      <c r="CK7" s="62">
+        <f t="shared" ref="CK7" si="15">AC7-CJ7</f>
+        <v>586.1226853401954</v>
+      </c>
+      <c r="CL7" s="62">
+        <f t="shared" si="10"/>
+        <v>117.22453706803908</v>
+      </c>
+      <c r="CM7" s="62">
+        <f t="shared" si="11"/>
         <v>-24.823993670926303</v>
       </c>
-      <c r="CL7" s="66">
-        <f t="shared" si="9"/>
+      <c r="CN7" s="62">
+        <f t="shared" si="11"/>
         <v>-13.597618931040415</v>
       </c>
-      <c r="CM7" s="66">
-        <f t="shared" si="9"/>
+      <c r="CO7" s="62">
+        <f t="shared" si="11"/>
         <v>7.191194081096274</v>
       </c>
-      <c r="CN7" s="66">
-        <f t="shared" si="9"/>
+      <c r="CP7" s="62">
+        <f t="shared" si="11"/>
         <v>22.7863915678744</v>
       </c>
-      <c r="CO7" s="66">
-        <f t="shared" si="10"/>
-        <v>109.8897403894258</v>
-      </c>
-      <c r="CP7" s="38">
-        <f t="shared" ref="CP7" si="14">BC7+BI7+BK7+BM7+BR7+BP7+BO7+BT7</f>
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
+      <c r="CQ7" s="62">
+        <f t="shared" si="12"/>
+        <v>108.78051011504304</v>
+      </c>
+      <c r="CR7" s="34">
+        <f t="shared" ref="CR7" si="16">BE7+BK7+BM7+BO7+BT7+BR7+BQ7+BV7</f>
         <v>0</v>
       </c>
       <c r="CS7">
@@ -8526,16 +7697,23 @@
       <c r="CY7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="AF11" s="77"/>
-      <c r="CI11" s="77"/>
-    </row>
-    <row r="12" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="CI12" s="66"/>
-    </row>
-    <row r="13" spans="1:104" x14ac:dyDescent="0.2">
-      <c r="CI13" s="78"/>
+      <c r="CZ7">
+        <v>0</v>
+      </c>
+      <c r="DA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="AF11" s="73"/>
+      <c r="BU11" s="76"/>
+      <c r="CK11" s="73"/>
+    </row>
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CK12" s="62"/>
+    </row>
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="CK13" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Model Inputs 2021.xlsx
+++ b/Model Inputs 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/truongbui/Dropbox/Career management/Reason/Reason Work/R projects/Plan Models/North Dakota PERS/NDPERS-Funding Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF5FC7-441C-C34A-9683-DAD7EC2A3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7202D48-754D-814B-B800-CC96C7C30905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5404,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:DB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="BA3" sqref="BA3"/>
+    <sheetView tabSelected="1" topLeftCell="BW1" zoomScale="111" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="CE6" sqref="CE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6059,10 +6059,11 @@
       </c>
       <c r="CD2" s="38">
         <f>CE2+AI2</f>
-        <v>974.59747700000025</v>
+        <v>1047.5579650000002</v>
       </c>
       <c r="CE2" s="9">
-        <v>0</v>
+        <f>CC2</f>
+        <v>72.960487999999998</v>
       </c>
       <c r="CF2" s="9">
         <v>0</v>
@@ -6354,17 +6355,18 @@
         <v>74.023555000000002</v>
       </c>
       <c r="CE3" s="9">
-        <v>0</v>
+        <f t="shared" ref="CE3:CE7" si="3">CC3</f>
+        <v>74.023555000000002</v>
       </c>
       <c r="CF3" s="9">
         <v>0</v>
       </c>
       <c r="CG3" s="10">
-        <f t="shared" ref="CG3:CG7" si="3">CC3/B3</f>
+        <f t="shared" ref="CG3:CG7" si="4">CC3/B3</f>
         <v>7.251216558709038E-2</v>
       </c>
       <c r="CH3" s="61">
-        <f t="shared" ref="CH3:CH6" si="4">BD3+BJ3+BI3+BL3+BN3+BS3+BU3+BR3+BP3</f>
+        <f t="shared" ref="CH3:CH6" si="5">BD3+BJ3+BI3+BL3+BN3+BS3+BU3+BR3+BP3</f>
         <v>-3.9957620000000009</v>
       </c>
       <c r="CI3" s="62">
@@ -6388,15 +6390,15 @@
         <v>0</v>
       </c>
       <c r="CN3" s="62">
-        <f t="shared" ref="CN3:CP3" si="5">CM2</f>
+        <f t="shared" ref="CN3:CP3" si="6">CM2</f>
         <v>0</v>
       </c>
       <c r="CO3" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CP3" s="62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CQ3" s="62">
@@ -6404,7 +6406,7 @@
         <v>22.7863915678744</v>
       </c>
       <c r="CR3" s="34">
-        <f t="shared" ref="CR3:CR6" si="6">BE3+BK3+BM3+BO3+BT3+BR3+BQ3+BV3</f>
+        <f t="shared" ref="CR3:CR6" si="7">BE3+BK3+BM3+BO3+BT3+BR3+BQ3+BV3</f>
         <v>0</v>
       </c>
       <c r="CS3">
@@ -6662,57 +6664,58 @@
         <v>75.666300000000007</v>
       </c>
       <c r="CE4" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>75.666300000000007</v>
       </c>
       <c r="CF4" s="9">
         <v>0</v>
       </c>
       <c r="CG4" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3654271390269199E-2</v>
       </c>
       <c r="CH4" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-9.8985329999999792</v>
       </c>
       <c r="CI4" s="62">
-        <f t="shared" ref="CI4:CI7" si="7">AC3*L3+CH4*((1+L3)^0.5-1)</f>
+        <f t="shared" ref="CI4:CI7" si="8">AC3*L3+CH4*((1+L3)^0.5-1)</f>
         <v>202.71588459451851</v>
       </c>
       <c r="CJ4" s="62">
-        <f t="shared" ref="CJ4:CJ6" si="8">AC3+CH4+CI4</f>
+        <f t="shared" ref="CJ4:CJ6" si="9">AC3+CH4+CI4</f>
         <v>2813.3631045945185</v>
       </c>
       <c r="CK4" s="62">
-        <f t="shared" ref="CK4:CK6" si="9">AC4-CJ4</f>
+        <f t="shared" ref="CK4:CK6" si="10">AC4-CJ4</f>
         <v>35.955970405481366</v>
       </c>
       <c r="CL4" s="62">
-        <f t="shared" ref="CL4:CL7" si="10">CK4*0.2</f>
+        <f t="shared" ref="CL4:CL7" si="11">CK4*0.2</f>
         <v>7.191194081096274</v>
       </c>
       <c r="CM4" s="62">
-        <f t="shared" ref="CM4:CP7" si="11">CL3</f>
+        <f t="shared" ref="CM4:CP7" si="12">CL3</f>
         <v>22.7863915678744</v>
       </c>
       <c r="CN4" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CO4" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CP4" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="CQ4" s="62">
-        <f t="shared" ref="CQ4:CQ7" si="12">SUM(CL4:CP4)</f>
+        <f t="shared" ref="CQ4:CQ7" si="13">SUM(CL4:CP4)</f>
         <v>29.977585648970674</v>
       </c>
       <c r="CR4" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CS4">
@@ -6972,57 +6975,58 @@
         <v>75.730260000000001</v>
       </c>
       <c r="CE5" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>75.730260000000001</v>
       </c>
       <c r="CF5" s="9">
         <v>0</v>
       </c>
       <c r="CG5" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2805644588690155E-2</v>
       </c>
       <c r="CH5" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-36.581496999999999</v>
       </c>
       <c r="CI5" s="62">
+        <f t="shared" si="8"/>
+        <v>219.43114465520219</v>
+      </c>
+      <c r="CJ5" s="62">
+        <f t="shared" si="9"/>
+        <v>3032.1687226552021</v>
+      </c>
+      <c r="CK5" s="62">
+        <f t="shared" si="10"/>
+        <v>-67.988094655202076</v>
+      </c>
+      <c r="CL5" s="62">
+        <f t="shared" si="11"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CM5" s="62">
+        <f t="shared" si="12"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CN5" s="62">
+        <f t="shared" si="12"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CO5" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CP5" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="62">
+        <f t="shared" si="13"/>
+        <v>16.379966717930259</v>
+      </c>
+      <c r="CR5" s="34">
         <f t="shared" si="7"/>
-        <v>219.43114465520219</v>
-      </c>
-      <c r="CJ5" s="62">
-        <f t="shared" si="8"/>
-        <v>3032.1687226552021</v>
-      </c>
-      <c r="CK5" s="62">
-        <f t="shared" si="9"/>
-        <v>-67.988094655202076</v>
-      </c>
-      <c r="CL5" s="62">
-        <f t="shared" si="10"/>
-        <v>-13.597618931040415</v>
-      </c>
-      <c r="CM5" s="62">
-        <f t="shared" si="11"/>
-        <v>7.191194081096274</v>
-      </c>
-      <c r="CN5" s="62">
-        <f t="shared" si="11"/>
-        <v>22.7863915678744</v>
-      </c>
-      <c r="CO5" s="62">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="CP5" s="62">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="62">
-        <f t="shared" si="12"/>
-        <v>16.379966717930259</v>
-      </c>
-      <c r="CR5" s="34">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CS5">
@@ -7288,57 +7292,58 @@
         <v>78.110561000000004</v>
       </c>
       <c r="CE6" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>78.110561000000004</v>
       </c>
       <c r="CF6" s="9">
         <v>0</v>
       </c>
       <c r="CG6" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.0808716965289759E-2</v>
       </c>
       <c r="CH6" s="61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-49.068123000000014</v>
       </c>
       <c r="CI6" s="62">
+        <f t="shared" si="8"/>
+        <v>220.50675735463145</v>
+      </c>
+      <c r="CJ6" s="62">
+        <f t="shared" si="9"/>
+        <v>3135.6192623546317</v>
+      </c>
+      <c r="CK6" s="62">
+        <f t="shared" si="10"/>
+        <v>-124.11996835463151</v>
+      </c>
+      <c r="CL6" s="62">
+        <f t="shared" si="11"/>
+        <v>-24.823993670926303</v>
+      </c>
+      <c r="CM6" s="62">
+        <f t="shared" si="12"/>
+        <v>-13.597618931040415</v>
+      </c>
+      <c r="CN6" s="62">
+        <f t="shared" si="12"/>
+        <v>7.191194081096274</v>
+      </c>
+      <c r="CO6" s="62">
+        <f t="shared" si="12"/>
+        <v>22.7863915678744</v>
+      </c>
+      <c r="CP6" s="62">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="62">
+        <f t="shared" si="13"/>
+        <v>-8.4440269529960403</v>
+      </c>
+      <c r="CR6" s="34">
         <f t="shared" si="7"/>
-        <v>220.50675735463145</v>
-      </c>
-      <c r="CJ6" s="62">
-        <f t="shared" si="8"/>
-        <v>3135.6192623546317</v>
-      </c>
-      <c r="CK6" s="62">
-        <f t="shared" si="9"/>
-        <v>-124.11996835463151</v>
-      </c>
-      <c r="CL6" s="62">
-        <f t="shared" si="10"/>
-        <v>-24.823993670926303</v>
-      </c>
-      <c r="CM6" s="62">
-        <f t="shared" si="11"/>
-        <v>-13.597618931040415</v>
-      </c>
-      <c r="CN6" s="62">
-        <f t="shared" si="11"/>
-        <v>7.191194081096274</v>
-      </c>
-      <c r="CO6" s="62">
-        <f t="shared" si="11"/>
-        <v>22.7863915678744</v>
-      </c>
-      <c r="CP6" s="62">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="CQ6" s="62">
-        <f t="shared" si="12"/>
-        <v>-8.4440269529960403</v>
-      </c>
-      <c r="CR6" s="34">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="CS6">
@@ -7623,57 +7628,58 @@
         <v>80.844430634999995</v>
       </c>
       <c r="CE7" s="9">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>80.844430634999995</v>
       </c>
       <c r="CF7" s="9">
         <v>0</v>
       </c>
       <c r="CG7" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1392698581927108E-2</v>
       </c>
       <c r="CH7" s="61">
-        <f t="shared" ref="CH7" si="13">BD7+BJ7+BI7+BL7+BN7+BS7+BU7+BR7+BP7</f>
+        <f t="shared" ref="CH7" si="14">BD7+BJ7+BI7+BL7+BN7+BS7+BU7+BR7+BP7</f>
         <v>-53.821427899692786</v>
       </c>
       <c r="CI7" s="62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>208.95306055949735</v>
       </c>
       <c r="CJ7" s="62">
-        <f t="shared" ref="CJ7" si="14">AC6+CH7+CI7</f>
+        <f t="shared" ref="CJ7" si="15">AC6+CH7+CI7</f>
         <v>3166.6309266598046</v>
       </c>
       <c r="CK7" s="62">
-        <f t="shared" ref="CK7" si="15">AC7-CJ7</f>
+        <f t="shared" ref="CK7" si="16">AC7-CJ7</f>
         <v>586.1226853401954</v>
       </c>
       <c r="CL7" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>117.22453706803908</v>
       </c>
       <c r="CM7" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-24.823993670926303</v>
       </c>
       <c r="CN7" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-13.597618931040415</v>
       </c>
       <c r="CO7" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.191194081096274</v>
       </c>
       <c r="CP7" s="62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22.7863915678744</v>
       </c>
       <c r="CQ7" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>108.78051011504304</v>
       </c>
       <c r="CR7" s="34">
-        <f t="shared" ref="CR7" si="16">BE7+BK7+BM7+BO7+BT7+BR7+BQ7+BV7</f>
+        <f t="shared" ref="CR7" si="17">BE7+BK7+BM7+BO7+BT7+BR7+BQ7+BV7</f>
         <v>0</v>
       </c>
       <c r="CS7">
